--- a/pages/CNT Product Description (1).xlsx
+++ b/pages/CNT Product Description (1).xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Samuel\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cfacorp-my.sharepoint.com/personal/su_bae_cfacorp_com/Documents/Documents/KakaoTalk Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="130" documentId="11_31DFF060DABD07D7B35263783ED0FEB440650BE7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B7C55980-BA4E-42E0-A229-4B78C9A16807}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22395" windowHeight="10110" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UVIRON" sheetId="3" r:id="rId1"/>
@@ -67,7 +68,7 @@
     <definedName name="QB_DATA_1" localSheetId="1" hidden="1">GEOSHIELD!#REF!,GEOSHIELD!#REF!,GEOSHIELD!#REF!,GEOSHIELD!#REF!,GEOSHIELD!#REF!,GEOSHIELD!#REF!,GEOSHIELD!#REF!,GEOSHIELD!#REF!,GEOSHIELD!#REF!,GEOSHIELD!#REF!,GEOSHIELD!#REF!,GEOSHIELD!#REF!,GEOSHIELD!#REF!,GEOSHIELD!#REF!,GEOSHIELD!#REF!,GEOSHIELD!#REF!</definedName>
     <definedName name="QB_DATA_1" localSheetId="2" hidden="1">Hitek!#REF!,Hitek!#REF!,Hitek!#REF!,Hitek!#REF!,Hitek!#REF!,Hitek!#REF!,Hitek!#REF!,Hitek!#REF!,Hitek!#REF!,Hitek!#REF!,Hitek!#REF!,Hitek!#REF!,Hitek!#REF!,Hitek!#REF!,Hitek!#REF!,Hitek!#REF!</definedName>
     <definedName name="QB_DATA_1" localSheetId="0" hidden="1">UVIRON!#REF!,UVIRON!#REF!,UVIRON!$11:$11,UVIRON!$12:$12,UVIRON!#REF!,UVIRON!#REF!,UVIRON!$20:$20,UVIRON!$21:$21,UVIRON!$22:$22,UVIRON!#REF!,UVIRON!#REF!,UVIRON!$26:$26,UVIRON!$27:$27,UVIRON!$28:$28,UVIRON!#REF!,UVIRON!$32:$32</definedName>
-    <definedName name="QB_DATA_10" localSheetId="1" hidden="1">GEOSHIELD!$73:$73,GEOSHIELD!$74:$74,GEOSHIELD!$75:$75,GEOSHIELD!$76:$76,GEOSHIELD!$77:$77,GEOSHIELD!$78:$78,GEOSHIELD!$79:$79,GEOSHIELD!$80:$80,GEOSHIELD!$81:$81,GEOSHIELD!#REF!,GEOSHIELD!$82:$82,GEOSHIELD!$83:$83,GEOSHIELD!$84:$84</definedName>
+    <definedName name="QB_DATA_10" localSheetId="1" hidden="1">GEOSHIELD!$116:$116,GEOSHIELD!$117:$117,GEOSHIELD!$118:$118,GEOSHIELD!$119:$119,GEOSHIELD!$120:$120,GEOSHIELD!$121:$121,GEOSHIELD!$122:$122,GEOSHIELD!$123:$123,GEOSHIELD!$124:$124,GEOSHIELD!#REF!,GEOSHIELD!$125:$125,GEOSHIELD!$126:$126,GEOSHIELD!$127:$127</definedName>
     <definedName name="QB_DATA_10" localSheetId="2" hidden="1">Hitek!$71:$71,Hitek!$72:$72,Hitek!$73:$73,Hitek!$74:$74,Hitek!$75:$75,Hitek!$76:$76,Hitek!$77:$77,Hitek!$78:$78,Hitek!$79:$79,Hitek!#REF!,Hitek!$80:$80,Hitek!$81:$81,Hitek!$82:$82</definedName>
     <definedName name="QB_DATA_10" localSheetId="0" hidden="1">UVIRON!#REF!,UVIRON!#REF!,UVIRON!#REF!,UVIRON!#REF!,UVIRON!#REF!,UVIRON!#REF!,UVIRON!#REF!,UVIRON!#REF!,UVIRON!#REF!,UVIRON!#REF!,UVIRON!$94:$94,UVIRON!$95:$95,UVIRON!$96:$96</definedName>
     <definedName name="QB_DATA_2" localSheetId="1" hidden="1">GEOSHIELD!#REF!,GEOSHIELD!#REF!,GEOSHIELD!#REF!,GEOSHIELD!#REF!,GEOSHIELD!#REF!,GEOSHIELD!#REF!,GEOSHIELD!#REF!,GEOSHIELD!#REF!,GEOSHIELD!#REF!,GEOSHIELD!#REF!,GEOSHIELD!#REF!,GEOSHIELD!#REF!,GEOSHIELD!#REF!,GEOSHIELD!#REF!,GEOSHIELD!#REF!,GEOSHIELD!#REF!</definedName>
@@ -79,19 +80,19 @@
     <definedName name="QB_DATA_4" localSheetId="1" hidden="1">GEOSHIELD!#REF!,GEOSHIELD!#REF!,GEOSHIELD!#REF!,GEOSHIELD!#REF!,GEOSHIELD!#REF!,GEOSHIELD!#REF!,GEOSHIELD!#REF!,GEOSHIELD!#REF!,GEOSHIELD!#REF!,GEOSHIELD!#REF!,GEOSHIELD!#REF!,GEOSHIELD!#REF!,GEOSHIELD!#REF!,GEOSHIELD!#REF!,GEOSHIELD!#REF!,GEOSHIELD!$3:$3</definedName>
     <definedName name="QB_DATA_4" localSheetId="2" hidden="1">Hitek!#REF!,Hitek!#REF!,Hitek!#REF!,Hitek!#REF!,Hitek!#REF!,Hitek!#REF!,Hitek!#REF!,Hitek!#REF!,Hitek!#REF!,Hitek!#REF!,Hitek!#REF!,Hitek!#REF!,Hitek!#REF!,Hitek!#REF!,Hitek!#REF!,Hitek!$3:$3</definedName>
     <definedName name="QB_DATA_4" localSheetId="0" hidden="1">UVIRON!$76:$76,UVIRON!$80:$80,UVIRON!$81:$81,UVIRON!$82:$82,UVIRON!$86:$86,UVIRON!$87:$87,UVIRON!$88:$88,UVIRON!#REF!,UVIRON!$92:$92,UVIRON!$93:$93,UVIRON!#REF!,UVIRON!#REF!,UVIRON!#REF!,UVIRON!#REF!,UVIRON!#REF!,UVIRON!#REF!</definedName>
-    <definedName name="QB_DATA_5" localSheetId="1" hidden="1">GEOSHIELD!$4:$4,GEOSHIELD!$5:$5,GEOSHIELD!$6:$6,GEOSHIELD!$7:$7,GEOSHIELD!$8:$8,GEOSHIELD!$9:$9,GEOSHIELD!$10:$10,GEOSHIELD!$11:$11,GEOSHIELD!$12:$12,GEOSHIELD!$13:$13,GEOSHIELD!$14:$14,GEOSHIELD!$15:$15,GEOSHIELD!$16:$16,GEOSHIELD!$17:$17,GEOSHIELD!#REF!,GEOSHIELD!#REF!</definedName>
+    <definedName name="QB_DATA_5" localSheetId="1" hidden="1">GEOSHIELD!$6:$6,GEOSHIELD!$7:$7,GEOSHIELD!$10:$10,GEOSHIELD!$11:$11,GEOSHIELD!$12:$12,GEOSHIELD!$15:$15,GEOSHIELD!$16:$16,GEOSHIELD!$19:$19,GEOSHIELD!$20:$20,GEOSHIELD!$23:$23,GEOSHIELD!$24:$24,GEOSHIELD!$27:$27,GEOSHIELD!$28:$28,GEOSHIELD!$31:$31,GEOSHIELD!#REF!,GEOSHIELD!#REF!</definedName>
     <definedName name="QB_DATA_5" localSheetId="2" hidden="1">Hitek!$4:$4,Hitek!$5:$5,Hitek!$6:$6,Hitek!$7:$7,Hitek!$8:$8,Hitek!$9:$9,Hitek!$10:$10,Hitek!$11:$11,Hitek!$12:$12,Hitek!$13:$13,Hitek!$14:$14,Hitek!$15:$15,Hitek!$16:$16,Hitek!$17:$17,Hitek!#REF!,Hitek!#REF!</definedName>
     <definedName name="QB_DATA_5" localSheetId="0" hidden="1">UVIRON!#REF!,UVIRON!#REF!,UVIRON!#REF!,UVIRON!#REF!,UVIRON!#REF!,UVIRON!#REF!,UVIRON!#REF!,UVIRON!#REF!,UVIRON!#REF!,UVIRON!#REF!,UVIRON!#REF!,UVIRON!#REF!,UVIRON!#REF!,UVIRON!#REF!,UVIRON!#REF!,UVIRON!#REF!</definedName>
-    <definedName name="QB_DATA_6" localSheetId="1" hidden="1">GEOSHIELD!#REF!,GEOSHIELD!#REF!,GEOSHIELD!#REF!,GEOSHIELD!#REF!,GEOSHIELD!#REF!,GEOSHIELD!#REF!,GEOSHIELD!$20:$20,GEOSHIELD!$21:$21,GEOSHIELD!$22:$22,GEOSHIELD!#REF!,GEOSHIELD!$23:$23,GEOSHIELD!$24:$24,GEOSHIELD!$25:$25,GEOSHIELD!$30:$30,GEOSHIELD!$31:$31,GEOSHIELD!$32:$32</definedName>
+    <definedName name="QB_DATA_6" localSheetId="1" hidden="1">GEOSHIELD!#REF!,GEOSHIELD!#REF!,GEOSHIELD!#REF!,GEOSHIELD!#REF!,GEOSHIELD!#REF!,GEOSHIELD!#REF!,GEOSHIELD!$34:$34,GEOSHIELD!$35:$35,GEOSHIELD!$38:$38,GEOSHIELD!#REF!,GEOSHIELD!$39:$39,GEOSHIELD!$40:$40,GEOSHIELD!$41:$41,GEOSHIELD!$47:$47,GEOSHIELD!$48:$48,GEOSHIELD!$49:$49</definedName>
     <definedName name="QB_DATA_6" localSheetId="2" hidden="1">Hitek!#REF!,Hitek!#REF!,Hitek!#REF!,Hitek!#REF!,Hitek!#REF!,Hitek!#REF!,Hitek!$19:$19,Hitek!$20:$20,Hitek!$21:$21,Hitek!#REF!,Hitek!$22:$22,Hitek!$23:$23,Hitek!$24:$24,Hitek!#REF!,Hitek!$27:$27,Hitek!$28:$28</definedName>
     <definedName name="QB_DATA_6" localSheetId="0" hidden="1">UVIRON!#REF!,UVIRON!#REF!,UVIRON!#REF!,UVIRON!#REF!,UVIRON!#REF!,UVIRON!#REF!,UVIRON!#REF!,UVIRON!#REF!,UVIRON!#REF!,UVIRON!#REF!,UVIRON!#REF!,UVIRON!#REF!,UVIRON!#REF!,UVIRON!#REF!,UVIRON!#REF!,UVIRON!#REF!</definedName>
-    <definedName name="QB_DATA_7" localSheetId="1" hidden="1">GEOSHIELD!$33:$33,GEOSHIELD!$34:$34,GEOSHIELD!$35:$35,GEOSHIELD!$36:$36,GEOSHIELD!$37:$37,GEOSHIELD!$38:$38,GEOSHIELD!$39:$39,GEOSHIELD!$40:$40,GEOSHIELD!$41:$41,GEOSHIELD!$42:$42,GEOSHIELD!$43:$43,GEOSHIELD!$44:$44,GEOSHIELD!$45:$45,GEOSHIELD!$46:$46,GEOSHIELD!$47:$47,GEOSHIELD!$48:$48</definedName>
+    <definedName name="QB_DATA_7" localSheetId="1" hidden="1">GEOSHIELD!$50:$50,GEOSHIELD!$53:$53,GEOSHIELD!$54:$54,GEOSHIELD!$55:$55,GEOSHIELD!$56:$56,GEOSHIELD!$59:$59,GEOSHIELD!$60:$60,GEOSHIELD!$63:$63,GEOSHIELD!$64:$64,GEOSHIELD!$65:$65,GEOSHIELD!$68:$68,GEOSHIELD!$69:$69,GEOSHIELD!$72:$72,GEOSHIELD!$73:$73,GEOSHIELD!$74:$74,GEOSHIELD!$77:$77</definedName>
     <definedName name="QB_DATA_7" localSheetId="2" hidden="1">Hitek!$29:$29,Hitek!$30:$30,Hitek!$31:$31,Hitek!$32:$32,Hitek!$33:$33,Hitek!$34:$34,Hitek!$35:$35,Hitek!$36:$36,Hitek!$37:$37,Hitek!$38:$38,Hitek!$39:$39,Hitek!$40:$40,Hitek!$41:$41,Hitek!$42:$42,Hitek!$43:$43,Hitek!$44:$44</definedName>
     <definedName name="QB_DATA_7" localSheetId="0" hidden="1">UVIRON!#REF!,UVIRON!#REF!,UVIRON!#REF!,UVIRON!#REF!,UVIRON!#REF!,UVIRON!#REF!,UVIRON!#REF!,UVIRON!#REF!,UVIRON!#REF!,UVIRON!#REF!,UVIRON!#REF!,UVIRON!#REF!,UVIRON!#REF!,UVIRON!#REF!,UVIRON!#REF!,UVIRON!#REF!</definedName>
-    <definedName name="QB_DATA_8" localSheetId="1" hidden="1">GEOSHIELD!#REF!,GEOSHIELD!#REF!,GEOSHIELD!$49:$49,GEOSHIELD!$50:$50,GEOSHIELD!$51:$51,GEOSHIELD!$52:$52,GEOSHIELD!$53:$53,GEOSHIELD!$54:$54,GEOSHIELD!$55:$55,GEOSHIELD!$56:$56,GEOSHIELD!$57:$57,GEOSHIELD!$58:$58,GEOSHIELD!$59:$59,GEOSHIELD!$60:$60,GEOSHIELD!$61:$61,GEOSHIELD!$62:$62</definedName>
+    <definedName name="QB_DATA_8" localSheetId="1" hidden="1">GEOSHIELD!#REF!,GEOSHIELD!#REF!,GEOSHIELD!$78:$78,GEOSHIELD!$79:$79,GEOSHIELD!$82:$82,GEOSHIELD!$83:$83,GEOSHIELD!$84:$84,GEOSHIELD!$87:$87,GEOSHIELD!$88:$88,GEOSHIELD!$89:$89,GEOSHIELD!$90:$90,GEOSHIELD!$93:$93,GEOSHIELD!$94:$94,GEOSHIELD!$95:$95,GEOSHIELD!$98:$98,GEOSHIELD!$99:$99</definedName>
     <definedName name="QB_DATA_8" localSheetId="2" hidden="1">Hitek!$45:$45,Hitek!$46:$46,Hitek!$47:$47,Hitek!$48:$48,Hitek!$49:$49,Hitek!$50:$50,Hitek!$51:$51,Hitek!$52:$52,Hitek!$53:$53,Hitek!$54:$54,Hitek!$55:$55,Hitek!$56:$56,Hitek!$57:$57,Hitek!$58:$58,Hitek!$59:$59,Hitek!$60:$60</definedName>
     <definedName name="QB_DATA_8" localSheetId="0" hidden="1">UVIRON!#REF!,UVIRON!#REF!,UVIRON!#REF!,UVIRON!#REF!,UVIRON!#REF!,UVIRON!#REF!,UVIRON!#REF!,UVIRON!#REF!,UVIRON!#REF!,UVIRON!#REF!,UVIRON!#REF!,UVIRON!#REF!,UVIRON!#REF!,UVIRON!#REF!,UVIRON!#REF!,UVIRON!#REF!</definedName>
-    <definedName name="QB_DATA_9" localSheetId="1" hidden="1">GEOSHIELD!$63:$63,GEOSHIELD!$64:$64,GEOSHIELD!$65:$65,GEOSHIELD!$66:$66,GEOSHIELD!$67:$67,GEOSHIELD!#REF!,GEOSHIELD!#REF!,GEOSHIELD!#REF!,GEOSHIELD!#REF!,GEOSHIELD!#REF!,GEOSHIELD!$68:$68,GEOSHIELD!$69:$69,GEOSHIELD!$70:$70,GEOSHIELD!$71:$71,GEOSHIELD!#REF!,GEOSHIELD!$72:$72</definedName>
+    <definedName name="QB_DATA_9" localSheetId="1" hidden="1">GEOSHIELD!$102:$102,GEOSHIELD!$103:$103,GEOSHIELD!$106:$106,GEOSHIELD!$107:$107,GEOSHIELD!$110:$110,GEOSHIELD!#REF!,GEOSHIELD!#REF!,GEOSHIELD!#REF!,GEOSHIELD!#REF!,GEOSHIELD!#REF!,GEOSHIELD!$111:$111,GEOSHIELD!$112:$112,GEOSHIELD!$113:$113,GEOSHIELD!$114:$114,GEOSHIELD!#REF!,GEOSHIELD!$115:$115</definedName>
     <definedName name="QB_DATA_9" localSheetId="2" hidden="1">Hitek!$61:$61,Hitek!$62:$62,Hitek!$63:$63,Hitek!$64:$64,Hitek!$65:$65,Hitek!#REF!,Hitek!#REF!,Hitek!#REF!,Hitek!#REF!,Hitek!#REF!,Hitek!$66:$66,Hitek!$67:$67,Hitek!$68:$68,Hitek!$69:$69,Hitek!#REF!,Hitek!$70:$70</definedName>
     <definedName name="QB_DATA_9" localSheetId="0" hidden="1">UVIRON!#REF!,UVIRON!#REF!,UVIRON!#REF!,UVIRON!#REF!,UVIRON!#REF!,UVIRON!#REF!,UVIRON!#REF!,UVIRON!#REF!,UVIRON!#REF!,UVIRON!#REF!,UVIRON!#REF!,UVIRON!#REF!,UVIRON!#REF!,UVIRON!#REF!,UVIRON!#REF!,UVIRON!#REF!</definedName>
     <definedName name="QB_FORMULA_0" localSheetId="1" hidden="1">GEOSHIELD!#REF!,GEOSHIELD!#REF!,GEOSHIELD!#REF!,GEOSHIELD!#REF!,GEOSHIELD!#REF!,GEOSHIELD!#REF!,GEOSHIELD!#REF!,GEOSHIELD!#REF!,GEOSHIELD!#REF!</definedName>
@@ -112,55 +113,55 @@
     <definedName name="QB_ROW_1786530" localSheetId="1" hidden="1">GEOSHIELD!#REF!</definedName>
     <definedName name="QB_ROW_1786530" localSheetId="2" hidden="1">Hitek!#REF!</definedName>
     <definedName name="QB_ROW_1786530" localSheetId="0" hidden="1">UVIRON!#REF!</definedName>
-    <definedName name="QB_ROW_1851530" localSheetId="1" hidden="1">GEOSHIELD!$A$72</definedName>
+    <definedName name="QB_ROW_1851530" localSheetId="1" hidden="1">GEOSHIELD!$A$115</definedName>
     <definedName name="QB_ROW_1851530" localSheetId="2" hidden="1">Hitek!$A$70</definedName>
     <definedName name="QB_ROW_1851530" localSheetId="0" hidden="1">UVIRON!#REF!</definedName>
-    <definedName name="QB_ROW_1852530" localSheetId="1" hidden="1">GEOSHIELD!$A$74</definedName>
+    <definedName name="QB_ROW_1852530" localSheetId="1" hidden="1">GEOSHIELD!$A$117</definedName>
     <definedName name="QB_ROW_1852530" localSheetId="2" hidden="1">Hitek!$A$72</definedName>
     <definedName name="QB_ROW_1852530" localSheetId="0" hidden="1">UVIRON!#REF!</definedName>
-    <definedName name="QB_ROW_1854530" localSheetId="1" hidden="1">GEOSHIELD!$A$76</definedName>
+    <definedName name="QB_ROW_1854530" localSheetId="1" hidden="1">GEOSHIELD!$A$119</definedName>
     <definedName name="QB_ROW_1854530" localSheetId="2" hidden="1">Hitek!$A$74</definedName>
     <definedName name="QB_ROW_1854530" localSheetId="0" hidden="1">UVIRON!#REF!</definedName>
-    <definedName name="QB_ROW_1855530" localSheetId="1" hidden="1">GEOSHIELD!$A$78</definedName>
+    <definedName name="QB_ROW_1855530" localSheetId="1" hidden="1">GEOSHIELD!$A$121</definedName>
     <definedName name="QB_ROW_1855530" localSheetId="2" hidden="1">Hitek!$A$76</definedName>
     <definedName name="QB_ROW_1855530" localSheetId="0" hidden="1">UVIRON!#REF!</definedName>
     <definedName name="QB_ROW_1974530" localSheetId="1" hidden="1">GEOSHIELD!#REF!</definedName>
     <definedName name="QB_ROW_1974530" localSheetId="2" hidden="1">Hitek!#REF!</definedName>
     <definedName name="QB_ROW_1974530" localSheetId="0" hidden="1">UVIRON!#REF!</definedName>
-    <definedName name="QB_ROW_2749530" localSheetId="1" hidden="1">GEOSHIELD!$A$25</definedName>
+    <definedName name="QB_ROW_2749530" localSheetId="1" hidden="1">GEOSHIELD!$A$41</definedName>
     <definedName name="QB_ROW_2749530" localSheetId="2" hidden="1">Hitek!$A$24</definedName>
     <definedName name="QB_ROW_2749530" localSheetId="0" hidden="1">UVIRON!#REF!</definedName>
-    <definedName name="QB_ROW_2750530" localSheetId="1" hidden="1">GEOSHIELD!$A$30</definedName>
+    <definedName name="QB_ROW_2750530" localSheetId="1" hidden="1">GEOSHIELD!$A$47</definedName>
     <definedName name="QB_ROW_2750530" localSheetId="2" hidden="1">Hitek!#REF!</definedName>
     <definedName name="QB_ROW_2750530" localSheetId="0" hidden="1">UVIRON!#REF!</definedName>
-    <definedName name="QB_ROW_2751530" localSheetId="1" hidden="1">GEOSHIELD!$A$33</definedName>
+    <definedName name="QB_ROW_2751530" localSheetId="1" hidden="1">GEOSHIELD!$A$50</definedName>
     <definedName name="QB_ROW_2751530" localSheetId="2" hidden="1">Hitek!$A$29</definedName>
     <definedName name="QB_ROW_2751530" localSheetId="0" hidden="1">UVIRON!#REF!</definedName>
-    <definedName name="QB_ROW_2752530" localSheetId="1" hidden="1">GEOSHIELD!$A$34</definedName>
+    <definedName name="QB_ROW_2752530" localSheetId="1" hidden="1">GEOSHIELD!$A$53</definedName>
     <definedName name="QB_ROW_2752530" localSheetId="2" hidden="1">Hitek!$A$30</definedName>
     <definedName name="QB_ROW_2752530" localSheetId="0" hidden="1">UVIRON!#REF!</definedName>
-    <definedName name="QB_ROW_2753530" localSheetId="1" hidden="1">GEOSHIELD!$A$37</definedName>
+    <definedName name="QB_ROW_2753530" localSheetId="1" hidden="1">GEOSHIELD!$A$56</definedName>
     <definedName name="QB_ROW_2753530" localSheetId="2" hidden="1">Hitek!$A$33</definedName>
     <definedName name="QB_ROW_2753530" localSheetId="0" hidden="1">UVIRON!#REF!</definedName>
-    <definedName name="QB_ROW_2754530" localSheetId="1" hidden="1">GEOSHIELD!$A$38</definedName>
+    <definedName name="QB_ROW_2754530" localSheetId="1" hidden="1">GEOSHIELD!$A$59</definedName>
     <definedName name="QB_ROW_2754530" localSheetId="2" hidden="1">Hitek!$A$34</definedName>
     <definedName name="QB_ROW_2754530" localSheetId="0" hidden="1">UVIRON!#REF!</definedName>
-    <definedName name="QB_ROW_2755530" localSheetId="1" hidden="1">GEOSHIELD!$A$42</definedName>
+    <definedName name="QB_ROW_2755530" localSheetId="1" hidden="1">GEOSHIELD!$A$65</definedName>
     <definedName name="QB_ROW_2755530" localSheetId="2" hidden="1">Hitek!$A$38</definedName>
     <definedName name="QB_ROW_2755530" localSheetId="0" hidden="1">UVIRON!#REF!</definedName>
-    <definedName name="QB_ROW_2756530" localSheetId="1" hidden="1">GEOSHIELD!$A$43</definedName>
+    <definedName name="QB_ROW_2756530" localSheetId="1" hidden="1">GEOSHIELD!$A$68</definedName>
     <definedName name="QB_ROW_2756530" localSheetId="2" hidden="1">Hitek!$A$39</definedName>
     <definedName name="QB_ROW_2756530" localSheetId="0" hidden="1">UVIRON!#REF!</definedName>
-    <definedName name="QB_ROW_2757530" localSheetId="1" hidden="1">GEOSHIELD!$A$44</definedName>
+    <definedName name="QB_ROW_2757530" localSheetId="1" hidden="1">GEOSHIELD!$A$69</definedName>
     <definedName name="QB_ROW_2757530" localSheetId="2" hidden="1">Hitek!$A$40</definedName>
     <definedName name="QB_ROW_2757530" localSheetId="0" hidden="1">UVIRON!#REF!</definedName>
-    <definedName name="QB_ROW_2758530" localSheetId="1" hidden="1">GEOSHIELD!$A$45</definedName>
+    <definedName name="QB_ROW_2758530" localSheetId="1" hidden="1">GEOSHIELD!$A$72</definedName>
     <definedName name="QB_ROW_2758530" localSheetId="2" hidden="1">Hitek!$A$41</definedName>
     <definedName name="QB_ROW_2758530" localSheetId="0" hidden="1">UVIRON!#REF!</definedName>
-    <definedName name="QB_ROW_2774530" localSheetId="1" hidden="1">GEOSHIELD!$A$47</definedName>
+    <definedName name="QB_ROW_2774530" localSheetId="1" hidden="1">GEOSHIELD!$A$74</definedName>
     <definedName name="QB_ROW_2774530" localSheetId="2" hidden="1">Hitek!$A$43</definedName>
     <definedName name="QB_ROW_2774530" localSheetId="0" hidden="1">UVIRON!#REF!</definedName>
-    <definedName name="QB_ROW_2775530" localSheetId="1" hidden="1">GEOSHIELD!$A$48</definedName>
+    <definedName name="QB_ROW_2775530" localSheetId="1" hidden="1">GEOSHIELD!$A$77</definedName>
     <definedName name="QB_ROW_2775530" localSheetId="2" hidden="1">Hitek!$A$44</definedName>
     <definedName name="QB_ROW_2775530" localSheetId="0" hidden="1">UVIRON!#REF!</definedName>
     <definedName name="QB_ROW_2832530" localSheetId="1" hidden="1">GEOSHIELD!#REF!</definedName>
@@ -265,7 +266,7 @@
     <definedName name="QB_ROW_2953530" localSheetId="1" hidden="1">GEOSHIELD!#REF!</definedName>
     <definedName name="QB_ROW_2953530" localSheetId="2" hidden="1">Hitek!#REF!</definedName>
     <definedName name="QB_ROW_2953530" localSheetId="0" hidden="1">UVIRON!#REF!</definedName>
-    <definedName name="QB_ROW_2954530" localSheetId="1" hidden="1">GEOSHIELD!$A$60</definedName>
+    <definedName name="QB_ROW_2954530" localSheetId="1" hidden="1">GEOSHIELD!$A$95</definedName>
     <definedName name="QB_ROW_2954530" localSheetId="2" hidden="1">Hitek!$A$58</definedName>
     <definedName name="QB_ROW_2954530" localSheetId="0" hidden="1">UVIRON!#REF!</definedName>
     <definedName name="QB_ROW_2967530" localSheetId="1" hidden="1">GEOSHIELD!#REF!</definedName>
@@ -295,7 +296,7 @@
     <definedName name="QB_ROW_2975530" localSheetId="1" hidden="1">GEOSHIELD!#REF!</definedName>
     <definedName name="QB_ROW_2975530" localSheetId="2" hidden="1">Hitek!#REF!</definedName>
     <definedName name="QB_ROW_2975530" localSheetId="0" hidden="1">UVIRON!#REF!</definedName>
-    <definedName name="QB_ROW_3028530" localSheetId="1" hidden="1">GEOSHIELD!$A$66</definedName>
+    <definedName name="QB_ROW_3028530" localSheetId="1" hidden="1">GEOSHIELD!$A$107</definedName>
     <definedName name="QB_ROW_3028530" localSheetId="2" hidden="1">Hitek!$A$64</definedName>
     <definedName name="QB_ROW_3028530" localSheetId="0" hidden="1">UVIRON!#REF!</definedName>
     <definedName name="QB_ROW_3031530" localSheetId="1" hidden="1">GEOSHIELD!#REF!</definedName>
@@ -352,10 +353,10 @@
     <definedName name="QB_ROW_3103530" localSheetId="1" hidden="1">GEOSHIELD!#REF!</definedName>
     <definedName name="QB_ROW_3103530" localSheetId="2" hidden="1">Hitek!#REF!</definedName>
     <definedName name="QB_ROW_3103530" localSheetId="0" hidden="1">UVIRON!#REF!</definedName>
-    <definedName name="QB_ROW_3114530" localSheetId="1" hidden="1">GEOSHIELD!$A$22</definedName>
+    <definedName name="QB_ROW_3114530" localSheetId="1" hidden="1">GEOSHIELD!$A$38</definedName>
     <definedName name="QB_ROW_3114530" localSheetId="2" hidden="1">Hitek!$A$21</definedName>
     <definedName name="QB_ROW_3114530" localSheetId="0" hidden="1">UVIRON!#REF!</definedName>
-    <definedName name="QB_ROW_3115530" localSheetId="1" hidden="1">GEOSHIELD!$A$21</definedName>
+    <definedName name="QB_ROW_3115530" localSheetId="1" hidden="1">GEOSHIELD!$A$35</definedName>
     <definedName name="QB_ROW_3115530" localSheetId="2" hidden="1">Hitek!$A$20</definedName>
     <definedName name="QB_ROW_3115530" localSheetId="0" hidden="1">UVIRON!#REF!</definedName>
     <definedName name="QB_ROW_3119530" localSheetId="1" hidden="1">GEOSHIELD!#REF!</definedName>
@@ -385,7 +386,7 @@
     <definedName name="QB_ROW_3136530" localSheetId="1" hidden="1">GEOSHIELD!#REF!</definedName>
     <definedName name="QB_ROW_3136530" localSheetId="2" hidden="1">Hitek!#REF!</definedName>
     <definedName name="QB_ROW_3136530" localSheetId="0" hidden="1">UVIRON!#REF!</definedName>
-    <definedName name="QB_ROW_3142530" localSheetId="1" hidden="1">GEOSHIELD!$A$67</definedName>
+    <definedName name="QB_ROW_3142530" localSheetId="1" hidden="1">GEOSHIELD!$A$110</definedName>
     <definedName name="QB_ROW_3142530" localSheetId="2" hidden="1">Hitek!$A$65</definedName>
     <definedName name="QB_ROW_3142530" localSheetId="0" hidden="1">UVIRON!#REF!</definedName>
     <definedName name="QB_ROW_3143530" localSheetId="1" hidden="1">GEOSHIELD!#REF!</definedName>
@@ -403,10 +404,10 @@
     <definedName name="QB_ROW_3158530" localSheetId="1" hidden="1">GEOSHIELD!#REF!</definedName>
     <definedName name="QB_ROW_3158530" localSheetId="2" hidden="1">Hitek!#REF!</definedName>
     <definedName name="QB_ROW_3158530" localSheetId="0" hidden="1">UVIRON!#REF!</definedName>
-    <definedName name="QB_ROW_3159530" localSheetId="1" hidden="1">GEOSHIELD!$A$23</definedName>
+    <definedName name="QB_ROW_3159530" localSheetId="1" hidden="1">GEOSHIELD!$A$39</definedName>
     <definedName name="QB_ROW_3159530" localSheetId="2" hidden="1">Hitek!$A$22</definedName>
     <definedName name="QB_ROW_3159530" localSheetId="0" hidden="1">UVIRON!#REF!</definedName>
-    <definedName name="QB_ROW_3160530" localSheetId="1" hidden="1">GEOSHIELD!$A$31</definedName>
+    <definedName name="QB_ROW_3160530" localSheetId="1" hidden="1">GEOSHIELD!$A$48</definedName>
     <definedName name="QB_ROW_3160530" localSheetId="2" hidden="1">Hitek!$A$27</definedName>
     <definedName name="QB_ROW_3160530" localSheetId="0" hidden="1">UVIRON!#REF!</definedName>
     <definedName name="QB_ROW_3162530" localSheetId="1" hidden="1">GEOSHIELD!#REF!</definedName>
@@ -415,7 +416,7 @@
     <definedName name="QB_ROW_3163530" localSheetId="1" hidden="1">GEOSHIELD!#REF!</definedName>
     <definedName name="QB_ROW_3163530" localSheetId="2" hidden="1">Hitek!#REF!</definedName>
     <definedName name="QB_ROW_3163530" localSheetId="0" hidden="1">UVIRON!$A$50</definedName>
-    <definedName name="QB_ROW_3166530" localSheetId="1" hidden="1">GEOSHIELD!$A$14</definedName>
+    <definedName name="QB_ROW_3166530" localSheetId="1" hidden="1">GEOSHIELD!$A$24</definedName>
     <definedName name="QB_ROW_3166530" localSheetId="2" hidden="1">Hitek!$A$14</definedName>
     <definedName name="QB_ROW_3166530" localSheetId="0" hidden="1">UVIRON!#REF!</definedName>
     <definedName name="QB_ROW_3167530" localSheetId="1" hidden="1">GEOSHIELD!#REF!</definedName>
@@ -427,31 +428,31 @@
     <definedName name="QB_ROW_3175530" localSheetId="1" hidden="1">GEOSHIELD!$A$3</definedName>
     <definedName name="QB_ROW_3175530" localSheetId="2" hidden="1">Hitek!$A$3</definedName>
     <definedName name="QB_ROW_3175530" localSheetId="0" hidden="1">UVIRON!#REF!</definedName>
-    <definedName name="QB_ROW_3176530" localSheetId="1" hidden="1">GEOSHIELD!$A$8</definedName>
+    <definedName name="QB_ROW_3176530" localSheetId="1" hidden="1">GEOSHIELD!$A$12</definedName>
     <definedName name="QB_ROW_3176530" localSheetId="2" hidden="1">Hitek!$A$8</definedName>
     <definedName name="QB_ROW_3176530" localSheetId="0" hidden="1">UVIRON!#REF!</definedName>
-    <definedName name="QB_ROW_3177530" localSheetId="1" hidden="1">GEOSHIELD!$A$10</definedName>
+    <definedName name="QB_ROW_3177530" localSheetId="1" hidden="1">GEOSHIELD!$A$16</definedName>
     <definedName name="QB_ROW_3177530" localSheetId="2" hidden="1">Hitek!$A$10</definedName>
     <definedName name="QB_ROW_3177530" localSheetId="0" hidden="1">UVIRON!#REF!</definedName>
-    <definedName name="QB_ROW_3184530" localSheetId="1" hidden="1">GEOSHIELD!$A$4</definedName>
+    <definedName name="QB_ROW_3184530" localSheetId="1" hidden="1">GEOSHIELD!$A$6</definedName>
     <definedName name="QB_ROW_3184530" localSheetId="2" hidden="1">Hitek!$A$4</definedName>
     <definedName name="QB_ROW_3184530" localSheetId="0" hidden="1">UVIRON!#REF!</definedName>
-    <definedName name="QB_ROW_3185530" localSheetId="1" hidden="1">GEOSHIELD!$A$9</definedName>
+    <definedName name="QB_ROW_3185530" localSheetId="1" hidden="1">GEOSHIELD!$A$15</definedName>
     <definedName name="QB_ROW_3185530" localSheetId="2" hidden="1">Hitek!$A$9</definedName>
     <definedName name="QB_ROW_3185530" localSheetId="0" hidden="1">UVIRON!#REF!</definedName>
-    <definedName name="QB_ROW_3186530" localSheetId="1" hidden="1">GEOSHIELD!$A$11</definedName>
+    <definedName name="QB_ROW_3186530" localSheetId="1" hidden="1">GEOSHIELD!$A$19</definedName>
     <definedName name="QB_ROW_3186530" localSheetId="2" hidden="1">Hitek!$A$11</definedName>
     <definedName name="QB_ROW_3186530" localSheetId="0" hidden="1">UVIRON!#REF!</definedName>
-    <definedName name="QB_ROW_3187530" localSheetId="1" hidden="1">GEOSHIELD!$A$5</definedName>
+    <definedName name="QB_ROW_3187530" localSheetId="1" hidden="1">GEOSHIELD!$A$7</definedName>
     <definedName name="QB_ROW_3187530" localSheetId="2" hidden="1">Hitek!$A$5</definedName>
     <definedName name="QB_ROW_3187530" localSheetId="0" hidden="1">UVIRON!#REF!</definedName>
-    <definedName name="QB_ROW_3188530" localSheetId="1" hidden="1">GEOSHIELD!$A$6</definedName>
+    <definedName name="QB_ROW_3188530" localSheetId="1" hidden="1">GEOSHIELD!$A$10</definedName>
     <definedName name="QB_ROW_3188530" localSheetId="2" hidden="1">Hitek!$A$6</definedName>
     <definedName name="QB_ROW_3188530" localSheetId="0" hidden="1">UVIRON!#REF!</definedName>
-    <definedName name="QB_ROW_3189530" localSheetId="1" hidden="1">GEOSHIELD!$A$15</definedName>
+    <definedName name="QB_ROW_3189530" localSheetId="1" hidden="1">GEOSHIELD!$A$27</definedName>
     <definedName name="QB_ROW_3189530" localSheetId="2" hidden="1">Hitek!$A$15</definedName>
     <definedName name="QB_ROW_3189530" localSheetId="0" hidden="1">UVIRON!#REF!</definedName>
-    <definedName name="QB_ROW_3193530" localSheetId="1" hidden="1">GEOSHIELD!$A$16</definedName>
+    <definedName name="QB_ROW_3193530" localSheetId="1" hidden="1">GEOSHIELD!$A$28</definedName>
     <definedName name="QB_ROW_3193530" localSheetId="2" hidden="1">Hitek!$A$16</definedName>
     <definedName name="QB_ROW_3193530" localSheetId="0" hidden="1">UVIRON!#REF!</definedName>
     <definedName name="QB_ROW_3202530" localSheetId="1" hidden="1">GEOSHIELD!#REF!</definedName>
@@ -466,40 +467,40 @@
     <definedName name="QB_ROW_3205530" localSheetId="1" hidden="1">GEOSHIELD!#REF!</definedName>
     <definedName name="QB_ROW_3205530" localSheetId="2" hidden="1">Hitek!#REF!</definedName>
     <definedName name="QB_ROW_3205530" localSheetId="0" hidden="1">UVIRON!#REF!</definedName>
-    <definedName name="QB_ROW_3206530" localSheetId="1" hidden="1">GEOSHIELD!$A$61</definedName>
+    <definedName name="QB_ROW_3206530" localSheetId="1" hidden="1">GEOSHIELD!$A$98</definedName>
     <definedName name="QB_ROW_3206530" localSheetId="2" hidden="1">Hitek!$A$59</definedName>
     <definedName name="QB_ROW_3206530" localSheetId="0" hidden="1">UVIRON!#REF!</definedName>
-    <definedName name="QB_ROW_3211530" localSheetId="1" hidden="1">GEOSHIELD!$A$68</definedName>
+    <definedName name="QB_ROW_3211530" localSheetId="1" hidden="1">GEOSHIELD!$A$111</definedName>
     <definedName name="QB_ROW_3211530" localSheetId="2" hidden="1">Hitek!$A$66</definedName>
     <definedName name="QB_ROW_3211530" localSheetId="0" hidden="1">UVIRON!#REF!</definedName>
-    <definedName name="QB_ROW_3212530" localSheetId="1" hidden="1">GEOSHIELD!$A$63</definedName>
+    <definedName name="QB_ROW_3212530" localSheetId="1" hidden="1">GEOSHIELD!$A$102</definedName>
     <definedName name="QB_ROW_3212530" localSheetId="2" hidden="1">Hitek!$A$61</definedName>
     <definedName name="QB_ROW_3212530" localSheetId="0" hidden="1">UVIRON!#REF!</definedName>
-    <definedName name="QB_ROW_3213530" localSheetId="1" hidden="1">GEOSHIELD!$A$65</definedName>
+    <definedName name="QB_ROW_3213530" localSheetId="1" hidden="1">GEOSHIELD!$A$106</definedName>
     <definedName name="QB_ROW_3213530" localSheetId="2" hidden="1">Hitek!$A$63</definedName>
     <definedName name="QB_ROW_3213530" localSheetId="0" hidden="1">UVIRON!#REF!</definedName>
-    <definedName name="QB_ROW_3214530" localSheetId="1" hidden="1">GEOSHIELD!$A$50</definedName>
+    <definedName name="QB_ROW_3214530" localSheetId="1" hidden="1">GEOSHIELD!$A$79</definedName>
     <definedName name="QB_ROW_3214530" localSheetId="2" hidden="1">Hitek!$A$48</definedName>
     <definedName name="QB_ROW_3214530" localSheetId="0" hidden="1">UVIRON!#REF!</definedName>
-    <definedName name="QB_ROW_3215530" localSheetId="1" hidden="1">GEOSHIELD!$A$51</definedName>
+    <definedName name="QB_ROW_3215530" localSheetId="1" hidden="1">GEOSHIELD!$A$82</definedName>
     <definedName name="QB_ROW_3215530" localSheetId="2" hidden="1">Hitek!$A$49</definedName>
     <definedName name="QB_ROW_3215530" localSheetId="0" hidden="1">UVIRON!#REF!</definedName>
-    <definedName name="QB_ROW_3216530" localSheetId="1" hidden="1">GEOSHIELD!$A$54</definedName>
+    <definedName name="QB_ROW_3216530" localSheetId="1" hidden="1">GEOSHIELD!$A$87</definedName>
     <definedName name="QB_ROW_3216530" localSheetId="2" hidden="1">Hitek!$A$52</definedName>
     <definedName name="QB_ROW_3216530" localSheetId="0" hidden="1">UVIRON!#REF!</definedName>
-    <definedName name="QB_ROW_3217530" localSheetId="1" hidden="1">GEOSHIELD!$A$53</definedName>
+    <definedName name="QB_ROW_3217530" localSheetId="1" hidden="1">GEOSHIELD!$A$84</definedName>
     <definedName name="QB_ROW_3217530" localSheetId="2" hidden="1">Hitek!$A$51</definedName>
     <definedName name="QB_ROW_3217530" localSheetId="0" hidden="1">UVIRON!#REF!</definedName>
-    <definedName name="QB_ROW_3218530" localSheetId="1" hidden="1">GEOSHIELD!$A$57</definedName>
+    <definedName name="QB_ROW_3218530" localSheetId="1" hidden="1">GEOSHIELD!$A$90</definedName>
     <definedName name="QB_ROW_3218530" localSheetId="2" hidden="1">Hitek!$A$55</definedName>
     <definedName name="QB_ROW_3218530" localSheetId="0" hidden="1">UVIRON!#REF!</definedName>
-    <definedName name="QB_ROW_3219530" localSheetId="1" hidden="1">GEOSHIELD!$A$58</definedName>
+    <definedName name="QB_ROW_3219530" localSheetId="1" hidden="1">GEOSHIELD!$A$93</definedName>
     <definedName name="QB_ROW_3219530" localSheetId="2" hidden="1">Hitek!$A$56</definedName>
     <definedName name="QB_ROW_3219530" localSheetId="0" hidden="1">UVIRON!#REF!</definedName>
-    <definedName name="QB_ROW_3220530" localSheetId="1" hidden="1">GEOSHIELD!$A$62</definedName>
+    <definedName name="QB_ROW_3220530" localSheetId="1" hidden="1">GEOSHIELD!$A$99</definedName>
     <definedName name="QB_ROW_3220530" localSheetId="2" hidden="1">Hitek!$A$60</definedName>
     <definedName name="QB_ROW_3220530" localSheetId="0" hidden="1">UVIRON!#REF!</definedName>
-    <definedName name="QB_ROW_3225530" localSheetId="1" hidden="1">GEOSHIELD!$A$64</definedName>
+    <definedName name="QB_ROW_3225530" localSheetId="1" hidden="1">GEOSHIELD!$A$103</definedName>
     <definedName name="QB_ROW_3225530" localSheetId="2" hidden="1">Hitek!$A$62</definedName>
     <definedName name="QB_ROW_3225530" localSheetId="0" hidden="1">UVIRON!#REF!</definedName>
     <definedName name="QB_ROW_3226530" localSheetId="1" hidden="1">GEOSHIELD!#REF!</definedName>
@@ -514,22 +515,22 @@
     <definedName name="QB_ROW_3248530" localSheetId="1" hidden="1">GEOSHIELD!#REF!</definedName>
     <definedName name="QB_ROW_3248530" localSheetId="2" hidden="1">Hitek!#REF!</definedName>
     <definedName name="QB_ROW_3248530" localSheetId="0" hidden="1">UVIRON!#REF!</definedName>
-    <definedName name="QB_ROW_3253530" localSheetId="1" hidden="1">GEOSHIELD!$A$17</definedName>
+    <definedName name="QB_ROW_3253530" localSheetId="1" hidden="1">GEOSHIELD!$A$31</definedName>
     <definedName name="QB_ROW_3253530" localSheetId="2" hidden="1">Hitek!$A$17</definedName>
     <definedName name="QB_ROW_3253530" localSheetId="0" hidden="1">UVIRON!#REF!</definedName>
-    <definedName name="QB_ROW_3254530" localSheetId="1" hidden="1">GEOSHIELD!$A$24</definedName>
+    <definedName name="QB_ROW_3254530" localSheetId="1" hidden="1">GEOSHIELD!$A$40</definedName>
     <definedName name="QB_ROW_3254530" localSheetId="2" hidden="1">Hitek!$A$23</definedName>
     <definedName name="QB_ROW_3254530" localSheetId="0" hidden="1">UVIRON!#REF!</definedName>
-    <definedName name="QB_ROW_3255530" localSheetId="1" hidden="1">GEOSHIELD!$A$35</definedName>
+    <definedName name="QB_ROW_3255530" localSheetId="1" hidden="1">GEOSHIELD!$A$54</definedName>
     <definedName name="QB_ROW_3255530" localSheetId="2" hidden="1">Hitek!$A$31</definedName>
     <definedName name="QB_ROW_3255530" localSheetId="0" hidden="1">UVIRON!#REF!</definedName>
-    <definedName name="QB_ROW_3256530" localSheetId="1" hidden="1">GEOSHIELD!$A$46</definedName>
+    <definedName name="QB_ROW_3256530" localSheetId="1" hidden="1">GEOSHIELD!$A$73</definedName>
     <definedName name="QB_ROW_3256530" localSheetId="2" hidden="1">Hitek!$A$42</definedName>
     <definedName name="QB_ROW_3256530" localSheetId="0" hidden="1">UVIRON!#REF!</definedName>
-    <definedName name="QB_ROW_3258530" localSheetId="1" hidden="1">GEOSHIELD!$A$32</definedName>
+    <definedName name="QB_ROW_3258530" localSheetId="1" hidden="1">GEOSHIELD!$A$49</definedName>
     <definedName name="QB_ROW_3258530" localSheetId="2" hidden="1">Hitek!$A$28</definedName>
     <definedName name="QB_ROW_3258530" localSheetId="0" hidden="1">UVIRON!#REF!</definedName>
-    <definedName name="QB_ROW_3264530" localSheetId="1" hidden="1">GEOSHIELD!$A$36</definedName>
+    <definedName name="QB_ROW_3264530" localSheetId="1" hidden="1">GEOSHIELD!$A$55</definedName>
     <definedName name="QB_ROW_3264530" localSheetId="2" hidden="1">Hitek!$A$32</definedName>
     <definedName name="QB_ROW_3264530" localSheetId="0" hidden="1">UVIRON!#REF!</definedName>
     <definedName name="QB_ROW_3265530" localSheetId="1" hidden="1">GEOSHIELD!#REF!</definedName>
@@ -538,49 +539,49 @@
     <definedName name="QB_ROW_3266530" localSheetId="1" hidden="1">GEOSHIELD!#REF!</definedName>
     <definedName name="QB_ROW_3266530" localSheetId="2" hidden="1">Hitek!#REF!</definedName>
     <definedName name="QB_ROW_3266530" localSheetId="0" hidden="1">UVIRON!#REF!</definedName>
-    <definedName name="QB_ROW_3268530" localSheetId="1" hidden="1">GEOSHIELD!$A$55</definedName>
+    <definedName name="QB_ROW_3268530" localSheetId="1" hidden="1">GEOSHIELD!$A$88</definedName>
     <definedName name="QB_ROW_3268530" localSheetId="2" hidden="1">Hitek!$A$53</definedName>
     <definedName name="QB_ROW_3268530" localSheetId="0" hidden="1">UVIRON!#REF!</definedName>
     <definedName name="QB_ROW_3270530" localSheetId="1" hidden="1">GEOSHIELD!#REF!</definedName>
     <definedName name="QB_ROW_3270530" localSheetId="2" hidden="1">Hitek!#REF!</definedName>
     <definedName name="QB_ROW_3270530" localSheetId="0" hidden="1">UVIRON!#REF!</definedName>
-    <definedName name="QB_ROW_3271530" localSheetId="1" hidden="1">GEOSHIELD!$A$56</definedName>
+    <definedName name="QB_ROW_3271530" localSheetId="1" hidden="1">GEOSHIELD!$A$89</definedName>
     <definedName name="QB_ROW_3271530" localSheetId="2" hidden="1">Hitek!$A$54</definedName>
     <definedName name="QB_ROW_3271530" localSheetId="0" hidden="1">UVIRON!#REF!</definedName>
-    <definedName name="QB_ROW_3291530" localSheetId="1" hidden="1">GEOSHIELD!$A$80</definedName>
+    <definedName name="QB_ROW_3291530" localSheetId="1" hidden="1">GEOSHIELD!$A$123</definedName>
     <definedName name="QB_ROW_3291530" localSheetId="2" hidden="1">Hitek!$A$78</definedName>
     <definedName name="QB_ROW_3291530" localSheetId="0" hidden="1">UVIRON!#REF!</definedName>
-    <definedName name="QB_ROW_3292530" localSheetId="1" hidden="1">GEOSHIELD!$A$73</definedName>
+    <definedName name="QB_ROW_3292530" localSheetId="1" hidden="1">GEOSHIELD!$A$116</definedName>
     <definedName name="QB_ROW_3292530" localSheetId="2" hidden="1">Hitek!$A$71</definedName>
     <definedName name="QB_ROW_3292530" localSheetId="0" hidden="1">UVIRON!#REF!</definedName>
-    <definedName name="QB_ROW_3293530" localSheetId="1" hidden="1">GEOSHIELD!$A$75</definedName>
+    <definedName name="QB_ROW_3293530" localSheetId="1" hidden="1">GEOSHIELD!$A$118</definedName>
     <definedName name="QB_ROW_3293530" localSheetId="2" hidden="1">Hitek!$A$73</definedName>
     <definedName name="QB_ROW_3293530" localSheetId="0" hidden="1">UVIRON!#REF!</definedName>
-    <definedName name="QB_ROW_3294530" localSheetId="1" hidden="1">GEOSHIELD!$A$77</definedName>
+    <definedName name="QB_ROW_3294530" localSheetId="1" hidden="1">GEOSHIELD!$A$120</definedName>
     <definedName name="QB_ROW_3294530" localSheetId="2" hidden="1">Hitek!$A$75</definedName>
     <definedName name="QB_ROW_3294530" localSheetId="0" hidden="1">UVIRON!#REF!</definedName>
-    <definedName name="QB_ROW_3298530" localSheetId="1" hidden="1">GEOSHIELD!$A$41</definedName>
+    <definedName name="QB_ROW_3298530" localSheetId="1" hidden="1">GEOSHIELD!$A$64</definedName>
     <definedName name="QB_ROW_3298530" localSheetId="2" hidden="1">Hitek!$A$37</definedName>
     <definedName name="QB_ROW_3298530" localSheetId="0" hidden="1">UVIRON!#REF!</definedName>
-    <definedName name="QB_ROW_3299530" localSheetId="1" hidden="1">GEOSHIELD!$A$49</definedName>
+    <definedName name="QB_ROW_3299530" localSheetId="1" hidden="1">GEOSHIELD!$A$78</definedName>
     <definedName name="QB_ROW_3299530" localSheetId="2" hidden="1">Hitek!$A$47</definedName>
     <definedName name="QB_ROW_3299530" localSheetId="0" hidden="1">UVIRON!#REF!</definedName>
-    <definedName name="QB_ROW_3300530" localSheetId="1" hidden="1">GEOSHIELD!$A$52</definedName>
+    <definedName name="QB_ROW_3300530" localSheetId="1" hidden="1">GEOSHIELD!$A$83</definedName>
     <definedName name="QB_ROW_3300530" localSheetId="2" hidden="1">Hitek!$A$50</definedName>
     <definedName name="QB_ROW_3300530" localSheetId="0" hidden="1">UVIRON!#REF!</definedName>
-    <definedName name="QB_ROW_3301530" localSheetId="1" hidden="1">GEOSHIELD!$A$59</definedName>
+    <definedName name="QB_ROW_3301530" localSheetId="1" hidden="1">GEOSHIELD!$A$94</definedName>
     <definedName name="QB_ROW_3301530" localSheetId="2" hidden="1">Hitek!$A$57</definedName>
     <definedName name="QB_ROW_3301530" localSheetId="0" hidden="1">UVIRON!#REF!</definedName>
-    <definedName name="QB_ROW_3305530" localSheetId="1" hidden="1">GEOSHIELD!$A$79</definedName>
+    <definedName name="QB_ROW_3305530" localSheetId="1" hidden="1">GEOSHIELD!$A$122</definedName>
     <definedName name="QB_ROW_3305530" localSheetId="2" hidden="1">Hitek!$A$77</definedName>
     <definedName name="QB_ROW_3305530" localSheetId="0" hidden="1">UVIRON!#REF!</definedName>
-    <definedName name="QB_ROW_3306530" localSheetId="1" hidden="1">GEOSHIELD!$A$81</definedName>
+    <definedName name="QB_ROW_3306530" localSheetId="1" hidden="1">GEOSHIELD!$A$124</definedName>
     <definedName name="QB_ROW_3306530" localSheetId="2" hidden="1">Hitek!$A$79</definedName>
     <definedName name="QB_ROW_3306530" localSheetId="0" hidden="1">UVIRON!#REF!</definedName>
-    <definedName name="QB_ROW_3307530" localSheetId="1" hidden="1">GEOSHIELD!$A$12</definedName>
+    <definedName name="QB_ROW_3307530" localSheetId="1" hidden="1">GEOSHIELD!$A$20</definedName>
     <definedName name="QB_ROW_3307530" localSheetId="2" hidden="1">Hitek!$A$12</definedName>
     <definedName name="QB_ROW_3307530" localSheetId="0" hidden="1">UVIRON!#REF!</definedName>
-    <definedName name="QB_ROW_3317530" localSheetId="1" hidden="1">GEOSHIELD!$A$13</definedName>
+    <definedName name="QB_ROW_3317530" localSheetId="1" hidden="1">GEOSHIELD!$A$23</definedName>
     <definedName name="QB_ROW_3317530" localSheetId="2" hidden="1">Hitek!$A$13</definedName>
     <definedName name="QB_ROW_3317530" localSheetId="0" hidden="1">UVIRON!#REF!</definedName>
     <definedName name="QB_ROW_3318530" localSheetId="1" hidden="1">GEOSHIELD!#REF!</definedName>
@@ -589,28 +590,28 @@
     <definedName name="QB_ROW_3319530" localSheetId="1" hidden="1">GEOSHIELD!#REF!</definedName>
     <definedName name="QB_ROW_3319530" localSheetId="2" hidden="1">Hitek!#REF!</definedName>
     <definedName name="QB_ROW_3319530" localSheetId="0" hidden="1">UVIRON!#REF!</definedName>
-    <definedName name="QB_ROW_3320530" localSheetId="1" hidden="1">GEOSHIELD!$A$7</definedName>
+    <definedName name="QB_ROW_3320530" localSheetId="1" hidden="1">GEOSHIELD!$A$11</definedName>
     <definedName name="QB_ROW_3320530" localSheetId="2" hidden="1">Hitek!$A$7</definedName>
     <definedName name="QB_ROW_3320530" localSheetId="0" hidden="1">UVIRON!#REF!</definedName>
-    <definedName name="QB_ROW_3321530" localSheetId="1" hidden="1">GEOSHIELD!$A$39</definedName>
+    <definedName name="QB_ROW_3321530" localSheetId="1" hidden="1">GEOSHIELD!$A$60</definedName>
     <definedName name="QB_ROW_3321530" localSheetId="2" hidden="1">Hitek!$A$35</definedName>
     <definedName name="QB_ROW_3321530" localSheetId="0" hidden="1">UVIRON!#REF!</definedName>
-    <definedName name="QB_ROW_3322530" localSheetId="1" hidden="1">GEOSHIELD!$A$40</definedName>
+    <definedName name="QB_ROW_3322530" localSheetId="1" hidden="1">GEOSHIELD!$A$63</definedName>
     <definedName name="QB_ROW_3322530" localSheetId="2" hidden="1">Hitek!$A$36</definedName>
     <definedName name="QB_ROW_3322530" localSheetId="0" hidden="1">UVIRON!#REF!</definedName>
     <definedName name="QB_ROW_3324530" localSheetId="1" hidden="1">GEOSHIELD!#REF!</definedName>
     <definedName name="QB_ROW_3324530" localSheetId="2" hidden="1">Hitek!#REF!</definedName>
     <definedName name="QB_ROW_3324530" localSheetId="0" hidden="1">UVIRON!#REF!</definedName>
-    <definedName name="QB_ROW_3327530" localSheetId="1" hidden="1">GEOSHIELD!$A$20</definedName>
+    <definedName name="QB_ROW_3327530" localSheetId="1" hidden="1">GEOSHIELD!$A$34</definedName>
     <definedName name="QB_ROW_3327530" localSheetId="2" hidden="1">Hitek!$A$19</definedName>
     <definedName name="QB_ROW_3327530" localSheetId="0" hidden="1">UVIRON!#REF!</definedName>
-    <definedName name="QB_ROW_3338530" localSheetId="1" hidden="1">GEOSHIELD!$A$71</definedName>
+    <definedName name="QB_ROW_3338530" localSheetId="1" hidden="1">GEOSHIELD!$A$114</definedName>
     <definedName name="QB_ROW_3338530" localSheetId="2" hidden="1">Hitek!$A$69</definedName>
     <definedName name="QB_ROW_3338530" localSheetId="0" hidden="1">UVIRON!#REF!</definedName>
-    <definedName name="QB_ROW_3339530" localSheetId="1" hidden="1">GEOSHIELD!$A$69</definedName>
+    <definedName name="QB_ROW_3339530" localSheetId="1" hidden="1">GEOSHIELD!$A$112</definedName>
     <definedName name="QB_ROW_3339530" localSheetId="2" hidden="1">Hitek!$A$67</definedName>
     <definedName name="QB_ROW_3339530" localSheetId="0" hidden="1">UVIRON!#REF!</definedName>
-    <definedName name="QB_ROW_3340530" localSheetId="1" hidden="1">GEOSHIELD!$A$70</definedName>
+    <definedName name="QB_ROW_3340530" localSheetId="1" hidden="1">GEOSHIELD!$A$113</definedName>
     <definedName name="QB_ROW_3340530" localSheetId="2" hidden="1">Hitek!$A$68</definedName>
     <definedName name="QB_ROW_3340530" localSheetId="0" hidden="1">UVIRON!#REF!</definedName>
     <definedName name="QB_ROW_48021" localSheetId="1" hidden="1">GEOSHIELD!#REF!</definedName>
@@ -776,17 +777,28 @@
     <definedName name="QBSTARTDATE" localSheetId="2">20251101</definedName>
     <definedName name="QBSTARTDATE" localSheetId="0">20251101</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1511" uniqueCount="647">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1791" uniqueCount="647">
   <si>
     <t>B-EC-ALPX0540 (Megamax EC-ALPX, 05% 40" X 100')</t>
   </si>
@@ -2912,14 +2924,21 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2989,42 +3008,45 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3074,6 +3096,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s3073"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000010C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3139,6 +3164,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1025"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -3202,6 +3230,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s7169"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000011C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3505,7 +3536,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:L96"/>
   <sheetViews>
@@ -3516,21 +3547,21 @@
       <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="55.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="0.85546875" style="11" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="3"/>
-    <col min="6" max="6" width="18.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="3"/>
-    <col min="8" max="8" width="0.85546875" style="11" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="55.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="0.88671875" style="11" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" style="3"/>
+    <col min="6" max="6" width="18.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" style="3"/>
+    <col min="8" max="8" width="0.88671875" style="11" customWidth="1"/>
+    <col min="9" max="9" width="15.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="48.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.28515625" style="3" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="2"/>
+    <col min="11" max="11" width="48.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" style="3" customWidth="1"/>
+    <col min="13" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -6628,7 +6659,7 @@
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>914400</xdr:colOff>
                 <xdr:row>1</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:rowOff>45720</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -6643,32 +6674,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L84"/>
+  <dimension ref="A1:L127"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G50" sqref="G50"/>
+      <selection pane="bottomRight" activeCell="F109" sqref="F109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="55.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="0.85546875" style="11" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="3"/>
-    <col min="6" max="6" width="12.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="3"/>
-    <col min="8" max="8" width="0.85546875" style="11" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="55.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="0.88671875" style="11" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" style="3"/>
+    <col min="6" max="6" width="12.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" style="3"/>
+    <col min="8" max="8" width="0.88671875" style="11" customWidth="1"/>
+    <col min="9" max="9" width="15.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="48.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.28515625" style="3" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="2"/>
+    <col min="11" max="11" width="48.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" style="3" customWidth="1"/>
+    <col min="13" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -6768,11 +6799,11 @@
       <c r="E4" s="3">
         <v>5</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>387</v>
+      <c r="F4" s="3">
+        <v>60</v>
       </c>
       <c r="G4" s="3">
-        <v>506.85</v>
+        <v>495.95</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>300</v>
@@ -6789,63 +6820,63 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E5" s="3">
-        <v>15</v>
-      </c>
-      <c r="F5" s="3">
-        <v>40</v>
+        <v>5</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>387</v>
       </c>
       <c r="G5" s="3">
-        <v>352.62</v>
+        <v>506.85</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="L5" s="3">
-        <v>157.5</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E6" s="3">
-        <v>15</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>387</v>
+        <v>5</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>388</v>
       </c>
       <c r="G6" s="3">
         <v>506.85</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L6" s="3">
         <v>226</v>
@@ -6853,80 +6884,80 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E7" s="3">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F7" s="3">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="G7" s="3">
-        <v>253.43</v>
+        <v>352.62</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="L7" s="3">
-        <v>113</v>
+        <v>157.5</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E8" s="3">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F8" s="3">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="G8" s="3">
-        <v>352.62</v>
+        <v>495.95</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="L8" s="3">
-        <v>157.5</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E9" s="3">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>387</v>
@@ -6935,13 +6966,13 @@
         <v>506.85</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="L9" s="3">
         <v>226</v>
@@ -6949,80 +6980,80 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="E10" s="3">
-        <v>35</v>
-      </c>
-      <c r="F10" s="3">
-        <v>40</v>
+        <v>15</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>388</v>
       </c>
       <c r="G10" s="3">
-        <v>352.62</v>
+        <v>506.85</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="L10" s="3">
-        <v>157.5</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E11" s="3">
-        <v>35</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>387</v>
+        <v>20</v>
+      </c>
+      <c r="F11" s="3">
+        <v>24</v>
       </c>
       <c r="G11" s="3">
-        <v>506.85</v>
+        <v>253.43</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="L11" s="3">
-        <v>226</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E12" s="3">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F12" s="3">
         <v>40</v>
@@ -7031,13 +7062,13 @@
         <v>352.62</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="L12" s="3">
         <v>157.5</v>
@@ -7045,31 +7076,31 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E13" s="3">
-        <v>40</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>387</v>
+        <v>20</v>
+      </c>
+      <c r="F13" s="3">
+        <v>60</v>
       </c>
       <c r="G13" s="3">
-        <v>506.85</v>
+        <v>495.95</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="L13" s="3">
         <v>226</v>
@@ -7077,895 +7108,895 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="E14" s="3">
-        <v>50</v>
-      </c>
-      <c r="F14" s="3">
-        <v>40</v>
+        <v>20</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>387</v>
       </c>
       <c r="G14" s="3">
-        <v>374.42</v>
+        <v>506.85</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="L14" s="3">
-        <v>166.5</v>
+        <v>226</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="7" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="E15" s="3">
-        <v>50</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>387</v>
+        <v>20</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>388</v>
       </c>
       <c r="G15" s="3">
-        <v>539.54999999999995</v>
+        <v>506.85</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="L15" s="3">
-        <v>235</v>
+        <v>226</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="7" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="E16" s="3">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="F16" s="3">
         <v>40</v>
       </c>
       <c r="G16" s="3">
-        <v>374.42</v>
+        <v>352.62</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="L16" s="3">
-        <v>166.5</v>
+        <v>157.5</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="7" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="E17" s="3">
-        <v>70</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>387</v>
+        <v>35</v>
+      </c>
+      <c r="F17" s="3">
+        <v>60</v>
       </c>
       <c r="G17" s="3">
-        <v>539.54999999999995</v>
+        <v>495.95</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="L17" s="3">
-        <v>235</v>
+        <v>226</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="7" t="s">
-        <v>528</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>529</v>
+        <v>64</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>307</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>542</v>
+        <v>553</v>
       </c>
       <c r="E18" s="3">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="G18" s="3">
-        <v>245.25</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>529</v>
+        <v>506.85</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>307</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>530</v>
+        <v>285</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>320</v>
       </c>
       <c r="L18" s="3">
-        <v>148.19999999999999</v>
+        <v>226</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="7" t="s">
-        <v>531</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>532</v>
+        <v>64</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>307</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>542</v>
+        <v>553</v>
       </c>
       <c r="E19" s="3">
-        <v>2</v>
-      </c>
-      <c r="F19" s="3">
-        <v>24</v>
+        <v>35</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>388</v>
       </c>
       <c r="G19" s="3">
-        <v>106.28</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>532</v>
+        <v>506.85</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>307</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>533</v>
+        <v>285</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>320</v>
       </c>
       <c r="L19" s="3">
-        <v>59.5</v>
+        <v>226</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>362</v>
+        <v>65</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>308</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
       <c r="E20" s="3">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="F20" s="3">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G20" s="3">
-        <v>145.52000000000001</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>362</v>
+        <v>352.62</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>308</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>337</v>
+        <v>286</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>321</v>
       </c>
       <c r="L20" s="3">
-        <v>82</v>
+        <v>157.5</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>363</v>
+        <v>66</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>309</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
       <c r="E21" s="3">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="F21" s="3">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="G21" s="3">
-        <v>145.52000000000001</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>363</v>
+        <v>495.95</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>309</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>338</v>
+        <v>286</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>322</v>
       </c>
       <c r="L21" s="3">
-        <v>82</v>
+        <v>226</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>364</v>
+        <v>66</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>309</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
       <c r="E22" s="3">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>387</v>
       </c>
       <c r="G22" s="3">
-        <v>212.55</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>364</v>
+        <v>506.85</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>309</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>339</v>
+        <v>286</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>322</v>
       </c>
       <c r="L22" s="3">
-        <v>119</v>
+        <v>226</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>365</v>
+        <v>66</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>309</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>543</v>
+        <v>554</v>
       </c>
       <c r="E23" s="3">
-        <v>5</v>
-      </c>
-      <c r="F23" s="3">
-        <v>24</v>
+        <v>40</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>388</v>
       </c>
       <c r="G23" s="3">
-        <v>98.1</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>365</v>
+        <v>506.85</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>309</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>340</v>
+        <v>286</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>322</v>
       </c>
       <c r="L23" s="3">
-        <v>52.5</v>
+        <v>226</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>366</v>
+        <v>67</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>310</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>543</v>
+        <v>555</v>
       </c>
       <c r="E24" s="3">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="F24" s="3">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G24" s="3">
-        <v>134.62</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>366</v>
+        <v>374.42</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>310</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>341</v>
+        <v>287</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="L24" s="3">
-        <v>74</v>
+        <v>166.5</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>367</v>
+        <v>68</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>311</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>543</v>
+        <v>555</v>
       </c>
       <c r="E25" s="3">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="F25" s="3">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="G25" s="3">
-        <v>134.62</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>367</v>
+        <v>495.95</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>311</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>342</v>
+        <v>287</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="L25" s="3">
-        <v>74</v>
+        <v>235</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>368</v>
+        <v>68</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>311</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>543</v>
+        <v>555</v>
       </c>
       <c r="E26" s="3">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>387</v>
       </c>
       <c r="G26" s="3">
-        <v>196.2</v>
-      </c>
-      <c r="I26" s="7" t="s">
-        <v>368</v>
+        <v>539.54999999999995</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>311</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>343</v>
+        <v>287</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="L26" s="3">
-        <v>105</v>
+        <v>235</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>368</v>
+        <v>68</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>311</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>543</v>
+        <v>555</v>
       </c>
       <c r="E27" s="3">
-        <v>5</v>
-      </c>
-      <c r="F27" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F27" s="15" t="s">
         <v>388</v>
       </c>
       <c r="G27" s="3">
-        <v>196.2</v>
-      </c>
-      <c r="I27" s="7" t="s">
-        <v>368</v>
+        <v>539.54999999999995</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>311</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>343</v>
+        <v>287</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="L27" s="3">
-        <v>105</v>
+        <v>235</v>
       </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>368</v>
+        <v>69</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>312</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>543</v>
+        <v>556</v>
       </c>
       <c r="E28" s="3">
-        <v>5</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>389</v>
+        <v>70</v>
+      </c>
+      <c r="F28" s="3">
+        <v>40</v>
       </c>
       <c r="G28" s="3">
-        <v>207.1</v>
-      </c>
-      <c r="I28" s="7" t="s">
-        <v>368</v>
+        <v>374.42</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>312</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>343</v>
+        <v>288</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>325</v>
       </c>
       <c r="L28" s="3">
-        <v>109</v>
+        <v>166.5</v>
       </c>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>368</v>
+        <v>70</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>313</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>543</v>
+        <v>556</v>
       </c>
       <c r="E29" s="3">
-        <v>5</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>390</v>
+        <v>70</v>
+      </c>
+      <c r="F29" s="3">
+        <v>60</v>
       </c>
       <c r="G29" s="3">
-        <v>207.1</v>
-      </c>
-      <c r="I29" s="7" t="s">
-        <v>368</v>
+        <v>495.95</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>313</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>343</v>
+        <v>288</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>326</v>
       </c>
       <c r="L29" s="3">
-        <v>109</v>
+        <v>235</v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>368</v>
+        <v>70</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>313</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>543</v>
+        <v>556</v>
       </c>
       <c r="E30" s="3">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="G30" s="3">
-        <v>228.9</v>
-      </c>
-      <c r="I30" s="7" t="s">
-        <v>368</v>
+        <v>539.54999999999995</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>313</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>343</v>
+        <v>288</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>326</v>
       </c>
       <c r="L30" s="3">
-        <v>134.19999999999999</v>
+        <v>235</v>
       </c>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>381</v>
+        <v>70</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>313</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="E31" s="3">
-        <v>15</v>
-      </c>
-      <c r="F31" s="3">
-        <v>24</v>
+        <v>70</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>388</v>
       </c>
       <c r="G31" s="3">
-        <v>98.1</v>
-      </c>
-      <c r="I31" s="7" t="s">
-        <v>381</v>
+        <v>539.54999999999995</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>313</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>344</v>
+        <v>288</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>326</v>
       </c>
       <c r="L31" s="3">
-        <v>52.5</v>
+        <v>235</v>
       </c>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="7" t="s">
-        <v>85</v>
+        <v>528</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>382</v>
+        <v>529</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="E32" s="3">
-        <v>15</v>
-      </c>
-      <c r="F32" s="3">
-        <v>36</v>
+        <v>2</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>391</v>
       </c>
       <c r="G32" s="3">
-        <v>134.62</v>
+        <v>245.25</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>382</v>
+        <v>529</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>345</v>
+        <v>530</v>
       </c>
       <c r="L32" s="3">
-        <v>74</v>
+        <v>148.19999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="7" t="s">
-        <v>86</v>
+        <v>531</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>369</v>
+        <v>532</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="E33" s="3">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="F33" s="3">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="G33" s="3">
-        <v>134.62</v>
+        <v>106.28</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>369</v>
+        <v>532</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>346</v>
+        <v>533</v>
       </c>
       <c r="L33" s="3">
-        <v>74</v>
+        <v>59.5</v>
       </c>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="7" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="E34" s="3">
-        <v>15</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>387</v>
+        <v>2</v>
+      </c>
+      <c r="F34" s="3">
+        <v>36</v>
       </c>
       <c r="G34" s="3">
-        <v>196.2</v>
+        <v>145.52000000000001</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="L34" s="3">
-        <v>105</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="7" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>383</v>
+        <v>363</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="E35" s="3">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="F35" s="3">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="G35" s="3">
-        <v>98.1</v>
+        <v>145.52000000000001</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>383</v>
+        <v>363</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="L35" s="3">
-        <v>52.5</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="7" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>384</v>
+        <v>364</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="E36" s="3">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="F36" s="3">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="G36" s="3">
-        <v>134.62</v>
+        <v>201.65</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>384</v>
+        <v>364</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="L36" s="3">
-        <v>74</v>
+        <v>119</v>
       </c>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="7" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="E37" s="3">
-        <v>20</v>
-      </c>
-      <c r="F37" s="3">
-        <v>40</v>
+        <v>2</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>387</v>
       </c>
       <c r="G37" s="3">
-        <v>134.62</v>
+        <v>212.55</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="L37" s="3">
-        <v>74</v>
+        <v>119</v>
       </c>
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="7" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="E38" s="3">
-        <v>20</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>387</v>
+        <v>2</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>388</v>
       </c>
       <c r="G38" s="3">
-        <v>196.2</v>
+        <v>212.55</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="L38" s="3">
-        <v>105</v>
+        <v>119</v>
       </c>
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="7" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="E39" s="3">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="F39" s="3">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="G39" s="3">
-        <v>134.62</v>
+        <v>98.1</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="L39" s="3">
-        <v>74</v>
+        <v>52.5</v>
       </c>
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="7" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="E40" s="3">
-        <v>30</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>387</v>
+        <v>5</v>
+      </c>
+      <c r="F40" s="3">
+        <v>36</v>
       </c>
       <c r="G40" s="3">
-        <v>196.2</v>
+        <v>134.62</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="L40" s="3">
-        <v>105</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="7" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>385</v>
+        <v>367</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="E41" s="3">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="F41" s="3">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G41" s="3">
         <v>134.62</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>385</v>
+        <v>367</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="L41" s="3">
         <v>74</v>
@@ -7973,48 +8004,48 @@
     </row>
     <row r="42" spans="1:12">
       <c r="A42" s="7" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="E42" s="3">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="F42" s="3">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="G42" s="3">
-        <v>134.62</v>
+        <v>201.65</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="L42" s="3">
-        <v>74</v>
+        <v>105</v>
       </c>
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="7" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="E43" s="3">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>387</v>
@@ -8023,13 +8054,13 @@
         <v>196.2</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="L43" s="3">
         <v>105</v>
@@ -8037,948 +8068,2321 @@
     </row>
     <row r="44" spans="1:12">
       <c r="A44" s="7" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="E44" s="3">
-        <v>40</v>
-      </c>
-      <c r="F44" s="3">
-        <v>40</v>
+        <v>5</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>388</v>
       </c>
       <c r="G44" s="3">
-        <v>134.62</v>
+        <v>196.2</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="L44" s="3">
-        <v>74</v>
+        <v>105</v>
       </c>
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="7" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="E45" s="3">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G45" s="3">
-        <v>196.2</v>
+        <v>207.1</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="L45" s="3">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="46" spans="1:12">
       <c r="A46" s="7" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="E46" s="3">
-        <v>50</v>
-      </c>
-      <c r="F46" s="3">
-        <v>36</v>
+        <v>5</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>390</v>
       </c>
       <c r="G46" s="3">
-        <v>134.62</v>
+        <v>207.1</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="L46" s="3">
-        <v>74</v>
+        <v>109</v>
       </c>
     </row>
     <row r="47" spans="1:12">
       <c r="A47" s="7" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="E47" s="3">
-        <v>50</v>
-      </c>
-      <c r="F47" s="3">
-        <v>40</v>
+        <v>5</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>391</v>
       </c>
       <c r="G47" s="3">
-        <v>134.62</v>
+        <v>228.9</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>360</v>
+        <v>343</v>
       </c>
       <c r="L47" s="3">
-        <v>74</v>
+        <v>134.19999999999999</v>
       </c>
     </row>
     <row r="48" spans="1:12">
       <c r="A48" s="7" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="E48" s="3">
-        <v>50</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>387</v>
+        <v>15</v>
+      </c>
+      <c r="F48" s="3">
+        <v>24</v>
       </c>
       <c r="G48" s="3">
-        <v>196.2</v>
+        <v>98.1</v>
       </c>
       <c r="I48" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="L48" s="3">
-        <v>105</v>
+        <v>52.5</v>
       </c>
     </row>
     <row r="49" spans="1:12">
       <c r="A49" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="E49" s="3">
+        <v>15</v>
+      </c>
+      <c r="F49" s="3">
+        <v>36</v>
+      </c>
+      <c r="G49" s="3">
+        <v>134.62</v>
+      </c>
+      <c r="I49" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="L49" s="3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="E50" s="3">
+        <v>15</v>
+      </c>
+      <c r="F50" s="3">
+        <v>40</v>
+      </c>
+      <c r="G50" s="3">
+        <v>134.62</v>
+      </c>
+      <c r="I50" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="L50" s="3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="E51" s="3">
+        <v>15</v>
+      </c>
+      <c r="F51" s="3">
+        <v>60</v>
+      </c>
+      <c r="G51" s="3">
+        <v>185.3</v>
+      </c>
+      <c r="I51" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="L51" s="3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="E52" s="3">
+        <v>15</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="G52" s="3">
+        <v>196.2</v>
+      </c>
+      <c r="I52" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="K52" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="L52" s="3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="E53" s="3">
+        <v>15</v>
+      </c>
+      <c r="F53" s="15" t="s">
+        <v>388</v>
+      </c>
+      <c r="G53" s="3">
+        <v>196.2</v>
+      </c>
+      <c r="I53" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="K53" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="L53" s="3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="E54" s="3">
+        <v>20</v>
+      </c>
+      <c r="F54" s="3">
+        <v>24</v>
+      </c>
+      <c r="G54" s="3">
+        <v>98.1</v>
+      </c>
+      <c r="I54" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="K54" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="L54" s="3">
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="E55" s="3">
+        <v>20</v>
+      </c>
+      <c r="F55" s="3">
+        <v>36</v>
+      </c>
+      <c r="G55" s="3">
+        <v>134.62</v>
+      </c>
+      <c r="I55" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="K55" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="L55" s="3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="E56" s="3">
+        <v>20</v>
+      </c>
+      <c r="F56" s="3">
+        <v>40</v>
+      </c>
+      <c r="G56" s="3">
+        <v>134.62</v>
+      </c>
+      <c r="I56" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="K56" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="L56" s="3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="E57" s="3">
+        <v>20</v>
+      </c>
+      <c r="F57" s="3">
+        <v>60</v>
+      </c>
+      <c r="G57" s="3">
+        <v>185.3</v>
+      </c>
+      <c r="I57" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="K57" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="L57" s="3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="E58" s="3">
+        <v>20</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="G58" s="3">
+        <v>196.2</v>
+      </c>
+      <c r="I58" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="K58" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="L58" s="3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="E59" s="3">
+        <v>20</v>
+      </c>
+      <c r="F59" s="15" t="s">
+        <v>388</v>
+      </c>
+      <c r="G59" s="3">
+        <v>196.2</v>
+      </c>
+      <c r="I59" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="K59" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="L59" s="3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="E60" s="3">
+        <v>30</v>
+      </c>
+      <c r="F60" s="3">
+        <v>40</v>
+      </c>
+      <c r="G60" s="3">
+        <v>134.62</v>
+      </c>
+      <c r="I60" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="K60" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="L60" s="3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="E61" s="3">
+        <v>30</v>
+      </c>
+      <c r="F61" s="3">
+        <v>60</v>
+      </c>
+      <c r="G61" s="3">
+        <v>185.3</v>
+      </c>
+      <c r="I61" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="K61" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="L61" s="3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="E62" s="3">
+        <v>30</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="G62" s="3">
+        <v>196.2</v>
+      </c>
+      <c r="I62" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="K62" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="L62" s="3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="E63" s="3">
+        <v>30</v>
+      </c>
+      <c r="F63" s="15" t="s">
+        <v>388</v>
+      </c>
+      <c r="G63" s="3">
+        <v>196.2</v>
+      </c>
+      <c r="I63" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="K63" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="L63" s="3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="E64" s="3">
+        <v>35</v>
+      </c>
+      <c r="F64" s="3">
+        <v>36</v>
+      </c>
+      <c r="G64" s="3">
+        <v>134.62</v>
+      </c>
+      <c r="I64" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="K64" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="L64" s="3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="E65" s="3">
+        <v>35</v>
+      </c>
+      <c r="F65" s="3">
+        <v>40</v>
+      </c>
+      <c r="G65" s="3">
+        <v>134.62</v>
+      </c>
+      <c r="I65" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="K65" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="L65" s="3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="A66" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="E66" s="3">
+        <v>35</v>
+      </c>
+      <c r="F66" s="3">
+        <v>60</v>
+      </c>
+      <c r="G66" s="3">
+        <v>185.3</v>
+      </c>
+      <c r="I66" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="K66" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="L66" s="3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="A67" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="E67" s="3">
+        <v>35</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="G67" s="3">
+        <v>196.2</v>
+      </c>
+      <c r="I67" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="K67" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="L67" s="3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="A68" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="E68" s="3">
+        <v>35</v>
+      </c>
+      <c r="F68" s="15" t="s">
+        <v>388</v>
+      </c>
+      <c r="G68" s="3">
+        <v>196.2</v>
+      </c>
+      <c r="I68" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="K68" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="L68" s="3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="A69" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="E69" s="3">
+        <v>40</v>
+      </c>
+      <c r="F69" s="3">
+        <v>40</v>
+      </c>
+      <c r="G69" s="3">
+        <v>134.62</v>
+      </c>
+      <c r="I69" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="K69" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="L69" s="3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
+      <c r="A70" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="E70" s="3">
+        <v>40</v>
+      </c>
+      <c r="F70" s="3">
+        <v>60</v>
+      </c>
+      <c r="G70" s="3">
+        <v>185.3</v>
+      </c>
+      <c r="I70" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="K70" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="L70" s="3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="A71" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="E71" s="3">
+        <v>40</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="G71" s="3">
+        <v>196.2</v>
+      </c>
+      <c r="I71" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="K71" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="L71" s="3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="A72" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="E72" s="3">
+        <v>40</v>
+      </c>
+      <c r="F72" s="15" t="s">
+        <v>388</v>
+      </c>
+      <c r="G72" s="3">
+        <v>196.2</v>
+      </c>
+      <c r="I72" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="J72" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="K72" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="L72" s="3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
+      <c r="A73" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="E73" s="3">
+        <v>50</v>
+      </c>
+      <c r="F73" s="3">
+        <v>36</v>
+      </c>
+      <c r="G73" s="3">
+        <v>134.62</v>
+      </c>
+      <c r="I73" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="K73" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="L73" s="3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
+      <c r="A74" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="E74" s="3">
+        <v>50</v>
+      </c>
+      <c r="F74" s="3">
+        <v>40</v>
+      </c>
+      <c r="G74" s="3">
+        <v>134.62</v>
+      </c>
+      <c r="I74" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="K74" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="L74" s="3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="A75" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="E75" s="3">
+        <v>50</v>
+      </c>
+      <c r="F75" s="3">
+        <v>60</v>
+      </c>
+      <c r="G75" s="3">
+        <v>185.3</v>
+      </c>
+      <c r="I75" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="J75" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="K75" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="L75" s="3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
+      <c r="A76" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="E76" s="3">
+        <v>50</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="G76" s="3">
+        <v>196.2</v>
+      </c>
+      <c r="I76" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="J76" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="K76" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="L76" s="3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
+      <c r="A77" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="E77" s="3">
+        <v>50</v>
+      </c>
+      <c r="F77" s="15" t="s">
+        <v>388</v>
+      </c>
+      <c r="G77" s="3">
+        <v>196.2</v>
+      </c>
+      <c r="I77" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="J77" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="K77" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="L77" s="3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="A78" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C78" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="D78" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="E49" s="3">
+      <c r="E78" s="3">
         <v>5</v>
       </c>
-      <c r="F49" s="3">
+      <c r="F78" s="3">
         <v>24</v>
       </c>
-      <c r="G49" s="3">
+      <c r="G78" s="3">
         <v>155.33000000000001</v>
       </c>
-      <c r="I49" s="7" t="s">
+      <c r="I78" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="J49" s="2" t="s">
+      <c r="J78" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="K49" s="7" t="s">
+      <c r="K78" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="L49" s="3">
+      <c r="L78" s="3">
         <f>141.3/2</f>
         <v>70.650000000000006</v>
       </c>
     </row>
-    <row r="50" spans="1:12">
-      <c r="A50" s="7" t="s">
+    <row r="79" spans="1:12">
+      <c r="A79" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C79" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D79" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="E50" s="3">
+      <c r="E79" s="3">
         <v>5</v>
       </c>
-      <c r="F50" s="3">
+      <c r="F79" s="3">
         <v>40</v>
       </c>
-      <c r="G50" s="3">
+      <c r="G79" s="3">
         <v>210.92</v>
       </c>
-      <c r="I50" s="7" t="s">
+      <c r="I79" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="J50" s="2" t="s">
+      <c r="J79" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="K50" s="7" t="s">
+      <c r="K79" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="L50" s="3">
+      <c r="L79" s="3">
         <v>100.5</v>
       </c>
     </row>
-    <row r="51" spans="1:12">
-      <c r="A51" s="7" t="s">
+    <row r="80" spans="1:12">
+      <c r="A80" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C80" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="D80" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="E51" s="3">
+      <c r="E80" s="3">
         <v>5</v>
       </c>
-      <c r="F51" s="3" t="s">
+      <c r="F80" s="3">
+        <v>60</v>
+      </c>
+      <c r="G80" s="3">
+        <v>299.75</v>
+      </c>
+      <c r="I80" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="J80" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="K80" s="7" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
+      <c r="A81" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="E81" s="3">
+        <v>5</v>
+      </c>
+      <c r="F81" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="G51" s="3">
+      <c r="G81" s="3">
         <v>310.64999999999998</v>
       </c>
-      <c r="I51" s="7" t="s">
+      <c r="I81" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="J51" s="2" t="s">
+      <c r="J81" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="K51" s="7" t="s">
+      <c r="K81" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="L51" s="3">
+      <c r="L81" s="3">
         <v>141.30000000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:12">
-      <c r="A52" s="7" t="s">
+    <row r="82" spans="1:12">
+      <c r="A82" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="E82" s="3">
+        <v>5</v>
+      </c>
+      <c r="F82" s="15" t="s">
+        <v>388</v>
+      </c>
+      <c r="G82" s="3">
+        <v>310.64999999999998</v>
+      </c>
+      <c r="I82" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="J82" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="K82" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="L82" s="3">
+        <v>141.30000000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
+      <c r="A83" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C83" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D83" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="E52" s="3">
+      <c r="E83" s="3">
         <v>15</v>
       </c>
-      <c r="F52" s="3">
+      <c r="F83" s="3">
         <v>24</v>
       </c>
-      <c r="G52" s="3">
+      <c r="G83" s="3">
         <v>155.33000000000001</v>
       </c>
-      <c r="I52" s="7" t="s">
+      <c r="I83" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="J52" s="2" t="s">
+      <c r="J83" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="K52" s="7" t="s">
+      <c r="K83" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="L52" s="3">
+      <c r="L83" s="3">
         <f>141.3/2</f>
         <v>70.650000000000006</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
-      <c r="A53" s="7" t="s">
+    <row r="84" spans="1:12">
+      <c r="A84" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C84" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="D84" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="E53" s="3">
+      <c r="E84" s="3">
         <v>15</v>
       </c>
-      <c r="F53" s="3">
+      <c r="F84" s="3">
         <v>40</v>
       </c>
-      <c r="G53" s="3">
+      <c r="G84" s="3">
         <v>210.92</v>
       </c>
-      <c r="I53" s="7" t="s">
+      <c r="I84" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="J53" s="2" t="s">
+      <c r="J84" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="K53" s="7" t="s">
+      <c r="K84" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="L53" s="3">
+      <c r="L84" s="3">
         <v>100.5</v>
       </c>
     </row>
-    <row r="54" spans="1:12">
-      <c r="A54" s="7" t="s">
+    <row r="85" spans="1:12">
+      <c r="A85" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="C85" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="D85" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="E54" s="3">
+      <c r="E85" s="3">
         <v>15</v>
       </c>
-      <c r="F54" s="3" t="s">
+      <c r="F85" s="3">
+        <v>60</v>
+      </c>
+      <c r="G85" s="3">
+        <v>299.75</v>
+      </c>
+      <c r="I85" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="J85" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="K85" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="L85" s="3">
+        <v>141.30000000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
+      <c r="A86" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="E86" s="3">
+        <v>15</v>
+      </c>
+      <c r="F86" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="G54" s="3">
+      <c r="G86" s="3">
         <v>310.64999999999998</v>
       </c>
-      <c r="I54" s="7" t="s">
+      <c r="I86" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="J54" s="2" t="s">
+      <c r="J86" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="K54" s="7" t="s">
+      <c r="K86" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="L54" s="3">
+      <c r="L86" s="3">
         <v>141.30000000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:12">
-      <c r="A55" s="7" t="s">
+    <row r="87" spans="1:12">
+      <c r="A87" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="E87" s="3">
+        <v>15</v>
+      </c>
+      <c r="F87" s="15" t="s">
+        <v>388</v>
+      </c>
+      <c r="G87" s="3">
+        <v>310.64999999999998</v>
+      </c>
+      <c r="I87" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="J87" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="K87" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="L87" s="3">
+        <v>141.30000000000001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
+      <c r="A88" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C88" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="D88" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="E55" s="3">
+      <c r="E88" s="3">
         <v>20</v>
       </c>
-      <c r="F55" s="3">
+      <c r="F88" s="3">
         <v>24</v>
       </c>
-      <c r="G55" s="3">
+      <c r="G88" s="3">
         <v>155.33000000000001</v>
       </c>
-      <c r="I55" s="7" t="s">
+      <c r="I88" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="J55" s="2" t="s">
+      <c r="J88" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="K55" s="7" t="s">
+      <c r="K88" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="L55" s="3">
+      <c r="L88" s="3">
         <v>76.5</v>
       </c>
     </row>
-    <row r="56" spans="1:12">
-      <c r="A56" s="7" t="s">
+    <row r="89" spans="1:12">
+      <c r="A89" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="C89" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="D89" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="E56" s="3">
+      <c r="E89" s="3">
         <v>20</v>
       </c>
-      <c r="F56" s="3">
+      <c r="F89" s="3">
         <v>36</v>
       </c>
-      <c r="G56" s="3">
+      <c r="G89" s="3">
         <v>210.92</v>
       </c>
-      <c r="I56" s="7" t="s">
+      <c r="I89" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="J56" s="2" t="s">
+      <c r="J89" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="K56" s="7" t="s">
+      <c r="K89" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="L56" s="3">
+      <c r="L89" s="3">
         <v>112</v>
       </c>
     </row>
-    <row r="57" spans="1:12">
-      <c r="A57" s="7" t="s">
+    <row r="90" spans="1:12">
+      <c r="A90" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="C90" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="D90" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="E57" s="3">
+      <c r="E90" s="3">
         <v>20</v>
       </c>
-      <c r="F57" s="3">
+      <c r="F90" s="3">
         <v>40</v>
       </c>
-      <c r="G57" s="3">
+      <c r="G90" s="3">
         <v>210.92</v>
       </c>
-      <c r="I57" s="7" t="s">
+      <c r="I90" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="J57" s="2" t="s">
+      <c r="J90" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="K57" s="7" t="s">
+      <c r="K90" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="L57" s="3">
+      <c r="L90" s="3">
         <v>112</v>
       </c>
     </row>
-    <row r="58" spans="1:12">
-      <c r="A58" s="7" t="s">
+    <row r="91" spans="1:12">
+      <c r="A91" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="C91" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="D91" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E91" s="3">
         <v>20</v>
       </c>
-      <c r="F58" s="3" t="s">
+      <c r="F91" s="3">
+        <v>60</v>
+      </c>
+      <c r="G91" s="3">
+        <v>299.75</v>
+      </c>
+      <c r="I91" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="J91" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="K91" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="L91" s="3">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
+      <c r="A92" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="E92" s="3">
+        <v>20</v>
+      </c>
+      <c r="F92" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="G58" s="3">
+      <c r="G92" s="3">
         <v>310.64999999999998</v>
       </c>
-      <c r="I58" s="7" t="s">
+      <c r="I92" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="J58" s="2" t="s">
+      <c r="J92" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="K58" s="7" t="s">
+      <c r="K92" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="L58" s="3">
+      <c r="L92" s="3">
         <v>153</v>
       </c>
     </row>
-    <row r="59" spans="1:12">
-      <c r="A59" s="7" t="s">
+    <row r="93" spans="1:12">
+      <c r="A93" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="E93" s="3">
+        <v>20</v>
+      </c>
+      <c r="F93" s="15" t="s">
+        <v>388</v>
+      </c>
+      <c r="G93" s="3">
+        <v>310.64999999999998</v>
+      </c>
+      <c r="I93" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="J93" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="K93" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="L93" s="3">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
+      <c r="A94" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="C94" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="D94" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="E59" s="3">
+      <c r="E94" s="3">
         <v>35</v>
       </c>
-      <c r="F59" s="3">
+      <c r="F94" s="3">
         <v>24</v>
       </c>
-      <c r="G59" s="3">
+      <c r="G94" s="3">
         <v>155.33000000000001</v>
       </c>
-      <c r="I59" s="7" t="s">
+      <c r="I94" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="J59" s="2" t="s">
+      <c r="J94" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="K59" s="7" t="s">
+      <c r="K94" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="L59" s="3">
+      <c r="L94" s="3">
         <v>79</v>
       </c>
     </row>
-    <row r="60" spans="1:12">
-      <c r="A60" s="7" t="s">
+    <row r="95" spans="1:12">
+      <c r="A95" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="C95" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="D95" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="E60" s="3">
+      <c r="E95" s="3">
         <v>35</v>
       </c>
-      <c r="F60" s="3">
+      <c r="F95" s="3">
         <v>40</v>
       </c>
-      <c r="G60" s="3">
+      <c r="G95" s="3">
         <v>210.92</v>
       </c>
-      <c r="I60" s="7" t="s">
+      <c r="I95" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="J60" s="2" t="s">
+      <c r="J95" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="K60" s="7" t="s">
+      <c r="K95" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="L60" s="3">
+      <c r="L95" s="3">
         <v>114</v>
       </c>
     </row>
-    <row r="61" spans="1:12">
-      <c r="A61" s="7" t="s">
+    <row r="96" spans="1:12">
+      <c r="A96" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="C96" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="D96" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="E61" s="3">
+      <c r="E96" s="3">
         <v>35</v>
       </c>
-      <c r="F61" s="3" t="s">
+      <c r="F96" s="3">
+        <v>60</v>
+      </c>
+      <c r="G96" s="3">
+        <v>299.75</v>
+      </c>
+      <c r="I96" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="J96" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="K96" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="L96" s="3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
+      <c r="A97" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="E97" s="3">
+        <v>35</v>
+      </c>
+      <c r="F97" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="G61" s="3">
+      <c r="G97" s="3">
         <v>310.64999999999998</v>
       </c>
-      <c r="I61" s="7" t="s">
+      <c r="I97" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="J61" s="2" t="s">
+      <c r="J97" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="K61" s="7" t="s">
+      <c r="K97" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="L61" s="3">
+      <c r="L97" s="3">
         <v>158</v>
       </c>
     </row>
-    <row r="62" spans="1:12">
-      <c r="A62" s="7" t="s">
+    <row r="98" spans="1:12">
+      <c r="A98" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="E98" s="3">
+        <v>35</v>
+      </c>
+      <c r="F98" s="15" t="s">
+        <v>388</v>
+      </c>
+      <c r="G98" s="3">
+        <v>310.64999999999998</v>
+      </c>
+      <c r="I98" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="J98" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="K98" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="L98" s="3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
+      <c r="A99" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="C99" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="D99" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="E62" s="3">
+      <c r="E99" s="3">
         <v>40</v>
       </c>
-      <c r="F62" s="3">
+      <c r="F99" s="3">
         <v>40</v>
       </c>
-      <c r="G62" s="3">
+      <c r="G99" s="3">
         <v>210.92</v>
       </c>
-      <c r="I62" s="7" t="s">
+      <c r="I99" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="J62" s="2" t="s">
+      <c r="J99" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="K62" s="7" t="s">
+      <c r="K99" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="L62" s="3">
+      <c r="L99" s="3">
         <v>114</v>
       </c>
     </row>
-    <row r="63" spans="1:12">
-      <c r="A63" s="7" t="s">
+    <row r="100" spans="1:12">
+      <c r="A100" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="C63" s="7" t="s">
+      <c r="C100" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="D100" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="E63" s="3">
+      <c r="E100" s="3">
         <v>40</v>
       </c>
-      <c r="F63" s="3" t="s">
+      <c r="F100" s="3">
+        <v>60</v>
+      </c>
+      <c r="G100" s="3">
+        <v>299.75</v>
+      </c>
+      <c r="I100" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="J100" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="K100" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="L100" s="3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
+      <c r="A101" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="E101" s="3">
+        <v>40</v>
+      </c>
+      <c r="F101" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="G63" s="3">
+      <c r="G101" s="3">
         <v>310.64999999999998</v>
       </c>
-      <c r="I63" s="7" t="s">
+      <c r="I101" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="J63" s="2" t="s">
+      <c r="J101" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="K63" s="7" t="s">
+      <c r="K101" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="L63" s="3">
+      <c r="L101" s="3">
         <v>158</v>
       </c>
     </row>
-    <row r="64" spans="1:12">
-      <c r="A64" s="7" t="s">
+    <row r="102" spans="1:12">
+      <c r="A102" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="E102" s="3">
+        <v>40</v>
+      </c>
+      <c r="F102" s="15" t="s">
+        <v>388</v>
+      </c>
+      <c r="G102" s="3">
+        <v>310.64999999999998</v>
+      </c>
+      <c r="I102" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="J102" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="K102" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="L102" s="3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12">
+      <c r="A103" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="C103" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="D64" s="2" t="s">
+      <c r="D103" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="E64" s="3">
+      <c r="E103" s="3">
         <v>50</v>
       </c>
-      <c r="F64" s="3">
+      <c r="F103" s="3">
         <v>40</v>
       </c>
-      <c r="G64" s="3">
+      <c r="G103" s="3">
         <v>210.92</v>
       </c>
-      <c r="I64" s="7" t="s">
+      <c r="I103" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="J64" s="2" t="s">
+      <c r="J103" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="K64" s="7" t="s">
+      <c r="K103" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="L64" s="3">
+      <c r="L103" s="3">
         <v>119</v>
       </c>
     </row>
-    <row r="65" spans="1:12">
-      <c r="A65" s="7" t="s">
+    <row r="104" spans="1:12">
+      <c r="A104" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="C65" s="7" t="s">
+      <c r="C104" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="D65" s="2" t="s">
+      <c r="D104" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="E65" s="3">
+      <c r="E104" s="3">
         <v>50</v>
       </c>
-      <c r="F65" s="3" t="s">
+      <c r="F104" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="G65" s="3">
+      <c r="G104" s="3">
+        <v>299.75</v>
+      </c>
+      <c r="I104" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="J104" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="K104" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="L104" s="3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12">
+      <c r="A105" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="E105" s="3">
+        <v>50</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="G105" s="3">
         <v>310.64999999999998</v>
       </c>
-      <c r="I65" s="7" t="s">
+      <c r="I105" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="J65" s="2" t="s">
+      <c r="J105" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="K65" s="7" t="s">
+      <c r="K105" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="L65" s="3">
+      <c r="L105" s="3">
         <v>165</v>
       </c>
     </row>
-    <row r="66" spans="1:12">
-      <c r="A66" s="7" t="s">
+    <row r="106" spans="1:12">
+      <c r="A106" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="E106" s="3">
+        <v>50</v>
+      </c>
+      <c r="F106" s="15" t="s">
+        <v>388</v>
+      </c>
+      <c r="G106" s="3">
+        <v>310.64999999999998</v>
+      </c>
+      <c r="I106" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="J106" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="K106" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="L106" s="3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12">
+      <c r="A107" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="C66" s="7" t="s">
+      <c r="C107" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="D107" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="E66" s="3">
+      <c r="E107" s="3">
         <v>70</v>
       </c>
-      <c r="F66" s="3">
+      <c r="F107" s="3">
         <v>40</v>
       </c>
-      <c r="G66" s="3">
+      <c r="G107" s="3">
         <v>227.27</v>
       </c>
-      <c r="I66" s="7" t="s">
+      <c r="I107" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="J66" s="2" t="s">
+      <c r="J107" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="K66" s="7" t="s">
+      <c r="K107" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="L66" s="3">
+      <c r="L107" s="3">
         <v>119</v>
       </c>
     </row>
-    <row r="67" spans="1:12">
-      <c r="A67" s="7" t="s">
+    <row r="108" spans="1:12">
+      <c r="A108" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="C67" s="7" t="s">
+      <c r="C108" s="7" t="s">
         <v>447</v>
       </c>
-      <c r="D67" s="2" t="s">
+      <c r="D108" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="E67" s="3">
+      <c r="E108" s="3">
         <v>70</v>
       </c>
-      <c r="F67" s="3" t="s">
+      <c r="F108" s="3">
+        <v>60</v>
+      </c>
+      <c r="G108" s="3">
+        <v>311.55</v>
+      </c>
+      <c r="I108" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="J108" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="K108" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="L108" s="3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12">
+      <c r="A109" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="E109" s="3">
+        <v>70</v>
+      </c>
+      <c r="F109" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="G67" s="3">
+      <c r="G109" s="3">
         <v>332.45</v>
       </c>
-      <c r="I67" s="7" t="s">
+      <c r="I109" s="7" t="s">
         <v>447</v>
       </c>
-      <c r="J67" s="2" t="s">
+      <c r="J109" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="K67" s="7" t="s">
+      <c r="K109" s="7" t="s">
         <v>435</v>
       </c>
-      <c r="L67" s="3">
+      <c r="L109" s="3">
         <v>165</v>
       </c>
     </row>
-    <row r="68" spans="1:12">
-      <c r="A68" s="7" t="s">
+    <row r="110" spans="1:12">
+      <c r="A110" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="E110" s="3">
+        <v>70</v>
+      </c>
+      <c r="F110" s="15" t="s">
+        <v>388</v>
+      </c>
+      <c r="G110" s="3">
+        <v>332.45</v>
+      </c>
+      <c r="I110" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="J110" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="K110" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="L110" s="3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12">
+      <c r="A111" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C111" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="D111" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="F68" s="3">
+      <c r="F111" s="3">
         <v>60</v>
       </c>
-      <c r="G68" s="3">
+      <c r="G111" s="3">
         <v>648.54999999999995</v>
       </c>
-      <c r="I68" s="2" t="s">
+      <c r="I111" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="K68" s="2" t="s">
+      <c r="K111" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="L68" s="3">
+      <c r="L111" s="3">
         <v>450</v>
       </c>
     </row>
-    <row r="69" spans="1:12">
-      <c r="A69" s="7" t="s">
+    <row r="112" spans="1:12">
+      <c r="A112" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C112" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="D112" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="F69" s="3">
+      <c r="F112" s="3">
         <v>60</v>
       </c>
-      <c r="G69" s="3">
+      <c r="G112" s="3">
         <v>686.7</v>
       </c>
-      <c r="I69" s="2" t="s">
+      <c r="I112" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="K69" s="2" t="s">
+      <c r="K112" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="L69" s="3">
+      <c r="L112" s="3">
         <v>480</v>
       </c>
     </row>
-    <row r="70" spans="1:12">
-      <c r="A70" s="7" t="s">
+    <row r="113" spans="1:12">
+      <c r="A113" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C113" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="D113" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="F70" s="3">
+      <c r="F113" s="3">
         <v>60</v>
       </c>
-      <c r="G70" s="3">
+      <c r="G113" s="3">
         <v>773.9</v>
       </c>
-      <c r="I70" s="2" t="s">
+      <c r="I113" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="K70" s="2" t="s">
+      <c r="K113" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="L70" s="3">
+      <c r="L113" s="3">
         <v>480</v>
       </c>
     </row>
-    <row r="71" spans="1:12">
-      <c r="A71" s="7" t="s">
+    <row r="114" spans="1:12">
+      <c r="A114" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="C114" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="D114" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="F71" s="3">
+      <c r="F114" s="3">
         <v>60</v>
       </c>
-      <c r="G71" s="3">
+      <c r="G114" s="3">
         <v>735.75</v>
       </c>
-      <c r="I71" s="2" t="s">
+      <c r="I114" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="K71" s="2" t="s">
+      <c r="K114" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="L71" s="3">
+      <c r="L114" s="3">
         <v>510</v>
       </c>
     </row>
-    <row r="72" spans="1:12">
-      <c r="A72" s="7" t="s">
+    <row r="115" spans="1:12">
+      <c r="A115" s="7" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="73" spans="1:12">
-      <c r="A73" s="7" t="s">
+    <row r="116" spans="1:12">
+      <c r="A116" s="7" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="74" spans="1:12">
-      <c r="A74" s="7" t="s">
+    <row r="117" spans="1:12">
+      <c r="A117" s="7" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="75" spans="1:12">
-      <c r="A75" s="7" t="s">
+    <row r="118" spans="1:12">
+      <c r="A118" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="I75" s="8"/>
-      <c r="J75" s="8"/>
-      <c r="K75" s="8"/>
-    </row>
-    <row r="76" spans="1:12">
-      <c r="A76" s="7" t="s">
+      <c r="I118" s="8"/>
+      <c r="J118" s="8"/>
+      <c r="K118" s="8"/>
+    </row>
+    <row r="119" spans="1:12">
+      <c r="A119" s="7" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="77" spans="1:12">
-      <c r="A77" s="7" t="s">
+    <row r="120" spans="1:12">
+      <c r="A120" s="7" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="78" spans="1:12">
-      <c r="A78" s="7" t="s">
+    <row r="121" spans="1:12">
+      <c r="A121" s="7" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="79" spans="1:12">
-      <c r="A79" s="7" t="s">
+    <row r="122" spans="1:12">
+      <c r="A122" s="7" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="80" spans="1:12">
-      <c r="A80" s="7" t="s">
+    <row r="123" spans="1:12">
+      <c r="A123" s="7" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="81" spans="1:12">
-      <c r="A81" s="7" t="s">
+    <row r="124" spans="1:12">
+      <c r="A124" s="7" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="82" spans="1:12">
-      <c r="A82" s="7"/>
-    </row>
-    <row r="83" spans="1:12">
-      <c r="A83" s="7"/>
-    </row>
-    <row r="84" spans="1:12" s="8" customFormat="1">
-      <c r="A84" s="5"/>
-      <c r="B84" s="12"/>
-      <c r="E84" s="9"/>
-      <c r="F84" s="9"/>
-      <c r="G84" s="9"/>
-      <c r="H84" s="12"/>
-      <c r="I84" s="2"/>
-      <c r="J84" s="2"/>
-      <c r="K84" s="2"/>
-      <c r="L84" s="9"/>
+    <row r="125" spans="1:12">
+      <c r="A125" s="7"/>
+    </row>
+    <row r="126" spans="1:12">
+      <c r="A126" s="7"/>
+    </row>
+    <row r="127" spans="1:12" s="8" customFormat="1">
+      <c r="A127" s="5"/>
+      <c r="B127" s="12"/>
+      <c r="E127" s="9"/>
+      <c r="F127" s="9"/>
+      <c r="G127" s="9"/>
+      <c r="H127" s="12"/>
+      <c r="I127" s="2"/>
+      <c r="J127" s="2"/>
+      <c r="K127" s="2"/>
+      <c r="L127" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -9013,7 +10417,7 @@
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>914400</xdr:colOff>
                 <xdr:row>1</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:rowOff>45720</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -9028,32 +10432,32 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:L82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="55.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="0.85546875" style="11" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="3"/>
-    <col min="6" max="6" width="12.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="3"/>
-    <col min="8" max="8" width="0.85546875" style="11" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="55.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="0.88671875" style="11" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" style="3"/>
+    <col min="6" max="6" width="12.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" style="3"/>
+    <col min="8" max="8" width="0.88671875" style="11" customWidth="1"/>
+    <col min="9" max="9" width="15.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="48.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.28515625" style="3" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="2"/>
+    <col min="11" max="11" width="48.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" style="3" customWidth="1"/>
+    <col min="13" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -11337,7 +12741,7 @@
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>914400</xdr:colOff>
                 <xdr:row>1</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:rowOff>45720</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
